--- a/Documents/FinancePlanner.xlsx
+++ b/Documents/FinancePlanner.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6B8D28-5EEF-4E27-A1DD-18556B097797}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504C05DE-E498-421E-8F34-4F6A7A026167}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="-3990" windowWidth="15600" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ChrisDebtSheet" sheetId="2" r:id="rId1"/>
-    <sheet name="AmyDebtSheet" sheetId="3" r:id="rId2"/>
-    <sheet name="ChrisFinances" sheetId="4" r:id="rId3"/>
-    <sheet name="AmyFinances" sheetId="5" r:id="rId4"/>
+    <sheet name="HouseSaleFunds" sheetId="6" r:id="rId1"/>
+    <sheet name="ChrisDebtSheet" sheetId="2" r:id="rId2"/>
+    <sheet name="AmyDebtSheet" sheetId="3" r:id="rId3"/>
+    <sheet name="ChrisFinances" sheetId="4" r:id="rId4"/>
+    <sheet name="AmyFinances" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
   <si>
     <t>Debt Plan</t>
   </si>
@@ -198,6 +199,126 @@
   </si>
   <si>
     <t xml:space="preserve">Mortgage Loan Balance </t>
+  </si>
+  <si>
+    <t>Hopeful House Sale Price</t>
+  </si>
+  <si>
+    <t>House Sale Estimates</t>
+  </si>
+  <si>
+    <t>Mortgage Payoff</t>
+  </si>
+  <si>
+    <t>Closing Costs &amp; Taxes</t>
+  </si>
+  <si>
+    <t>Down Payment Savings</t>
+  </si>
+  <si>
+    <t>Honeymoon Funds Savings</t>
+  </si>
+  <si>
+    <t>Replace Cards</t>
+  </si>
+  <si>
+    <t>Credit Card Payoff</t>
+  </si>
+  <si>
+    <t>Estimated Remainder to Spend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moving Cost Estimate : </t>
+  </si>
+  <si>
+    <t>Office Roller Cabinet</t>
+  </si>
+  <si>
+    <t>Wire Art Desk + Shelf (Most Art Supplies?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Items Moving to Apartment : </t>
+  </si>
+  <si>
+    <t>Primary Computer Desk</t>
+  </si>
+  <si>
+    <t>Network Cabinet Box</t>
+  </si>
+  <si>
+    <t>Kitchen Table</t>
+  </si>
+  <si>
+    <t>2 Couches</t>
+  </si>
+  <si>
+    <t>Primary Bed</t>
+  </si>
+  <si>
+    <t>Guest Bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give Away Items : </t>
+  </si>
+  <si>
+    <t>Red Couch</t>
+  </si>
+  <si>
+    <t>Gaming Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blower </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weed Eater </t>
+  </si>
+  <si>
+    <t>Counter Seats</t>
+  </si>
+  <si>
+    <t>Glass Patio Table</t>
+  </si>
+  <si>
+    <t>Porch Chairs</t>
+  </si>
+  <si>
+    <t>Porch Table</t>
+  </si>
+  <si>
+    <t>Guest Room Night Stands</t>
+  </si>
+  <si>
+    <t>Draft Table</t>
+  </si>
+  <si>
+    <t>3 Dressers (1 Long, 2 Tall)</t>
+  </si>
+  <si>
+    <t>TV Stand (w TV and Switch)</t>
+  </si>
+  <si>
+    <t>Xbox + Rock Band Stuff</t>
+  </si>
+  <si>
+    <t>Board Game Collection (Maybe new Shelves)</t>
+  </si>
+  <si>
+    <t>Black Bookcase</t>
+  </si>
+  <si>
+    <t>Corner Glass Table</t>
+  </si>
+  <si>
+    <t>Primary Bed Stands</t>
+  </si>
+  <si>
+    <t>Secondary Computer Desk (Disassemble into Closet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rent 1st, Last, + Rent. </t>
+  </si>
+  <si>
+    <t>Pay Bills / Groceries w/ money till jobs</t>
   </si>
 </sst>
 </file>
@@ -209,7 +330,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +442,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -360,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -476,16 +621,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -518,6 +673,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="8" fontId="10" fillId="3" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -542,22 +700,61 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="6"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="60% - Accent1" xfId="3" builtinId="32"/>
     <cellStyle name="60% - Accent3" xfId="4" builtinId="40"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="6" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
   <dxfs count="20">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -600,11 +797,10 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -612,10 +808,10 @@
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
+        <left/>
+        <right style="thin">
           <color indexed="64"/>
-        </left>
-        <right/>
+        </right>
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
@@ -717,50 +913,10 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -774,6 +930,13 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -1097,12 +1260,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{49161D7B-8D08-4089-8C3D-39D960E38790}" name="Table323423" displayName="Table323423" ref="D28:F36" totalsRowCount="1" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6" headerRowCellStyle="Heading 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{49161D7B-8D08-4089-8C3D-39D960E38790}" name="Table323423" displayName="Table323423" ref="D28:F36" totalsRowCount="1" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6" headerRowCellStyle="Heading 1">
   <autoFilter ref="D28:F35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="4" xr3:uid="{A15154F7-2DD9-4AEB-90F1-B058CEA2AF0F}" name="EstDate" totalsRowLabel="Total" dataDxfId="4" totalsRowDxfId="5" dataCellStyle="60% - Accent1"/>
-    <tableColumn id="1" xr3:uid="{57C274D6-8845-4B3A-A9C7-0E55BCB91049}" name="Expense" dataDxfId="2" totalsRowDxfId="3" dataCellStyle="60% - Accent1"/>
-    <tableColumn id="2" xr3:uid="{9F475459-1A87-4FDD-A65F-E47E7919F285}" name="Estimated Cost" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="60% - Accent1"/>
+    <tableColumn id="4" xr3:uid="{A15154F7-2DD9-4AEB-90F1-B058CEA2AF0F}" name="EstDate" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="60% - Accent1"/>
+    <tableColumn id="1" xr3:uid="{57C274D6-8845-4B3A-A9C7-0E55BCB91049}" name="Expense" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="60% - Accent1"/>
+    <tableColumn id="2" xr3:uid="{9F475459-1A87-4FDD-A65F-E47E7919F285}" name="Estimated Cost" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="60% - Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1370,6 +1533,270 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85A47CF-6AC8-4C4D-A41E-CA1810B484A4}">
+  <dimension ref="C1:I39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="2.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="35">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="35">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="35">
+        <v>5000</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="35">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="35">
+        <v>25000</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="35">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="35">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="35">
+        <v>4000</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="34">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="34">
+        <f>SUM(D4:D10)</f>
+        <v>167500</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="34">
+        <f>D3-D11</f>
+        <v>12500</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H33" s="36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1377,7 +1804,7 @@
   <dimension ref="C1:N36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,34 +1827,34 @@
     <row r="1" spans="3:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
+      <c r="C3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
     </row>
     <row r="4" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="30"/>
     </row>
     <row r="5" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
@@ -1478,7 +1905,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="7">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="G6" s="7">
         <v>3500</v>
@@ -1514,7 +1941,7 @@
       </c>
       <c r="F7" s="7">
         <f>F6-I7</f>
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" ref="G7:G19" si="0">G6-J7</f>
@@ -1537,7 +1964,7 @@
       </c>
       <c r="N7" s="20">
         <f>M7-F7-G7</f>
-        <v>-6100</v>
+        <v>-7500</v>
       </c>
     </row>
     <row r="8" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1552,7 +1979,7 @@
       </c>
       <c r="F8" s="7">
         <f t="shared" ref="F8:F19" si="1">F7-I8</f>
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="0"/>
@@ -1577,7 +2004,7 @@
       </c>
       <c r="N8" s="20">
         <f t="shared" ref="N8:N19" si="2">M8-F8-G8</f>
-        <v>-6100</v>
+        <v>-7500</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1592,7 +2019,7 @@
       </c>
       <c r="F9" s="7">
         <f t="shared" si="1"/>
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
@@ -1617,7 +2044,7 @@
       </c>
       <c r="N9" s="20">
         <f t="shared" si="2"/>
-        <v>-6100</v>
+        <v>-7500</v>
       </c>
     </row>
     <row r="10" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1632,7 +2059,7 @@
       </c>
       <c r="F10" s="7">
         <f t="shared" si="1"/>
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="0"/>
@@ -1657,7 +2084,7 @@
       </c>
       <c r="N10" s="20">
         <f t="shared" si="2"/>
-        <v>-6100</v>
+        <v>-7500</v>
       </c>
     </row>
     <row r="11" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1672,7 +2099,7 @@
       </c>
       <c r="F11" s="7">
         <f t="shared" si="1"/>
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="0"/>
@@ -1697,7 +2124,7 @@
       </c>
       <c r="N11" s="20">
         <f t="shared" si="2"/>
-        <v>-6100</v>
+        <v>-7500</v>
       </c>
     </row>
     <row r="12" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1705,18 +2132,18 @@
         <v>44393</v>
       </c>
       <c r="D12" s="18">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="1"/>
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
@@ -1725,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="8">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="2"/>
@@ -1735,7 +2162,7 @@
       </c>
       <c r="N12" s="20">
         <f t="shared" si="2"/>
-        <v>-2600</v>
+        <v>-7500</v>
       </c>
     </row>
     <row r="13" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1750,11 +2177,11 @@
       </c>
       <c r="F13" s="7">
         <f t="shared" si="1"/>
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
@@ -1773,7 +2200,7 @@
       </c>
       <c r="N13" s="20">
         <f t="shared" si="2"/>
-        <v>-1900</v>
+        <v>-6800</v>
       </c>
     </row>
     <row r="14" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1788,11 +2215,11 @@
       </c>
       <c r="F14" s="7">
         <f t="shared" si="1"/>
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H14" s="6">
         <v>0</v>
@@ -1811,7 +2238,7 @@
       </c>
       <c r="N14" s="20">
         <f t="shared" si="2"/>
-        <v>-1900</v>
+        <v>-6800</v>
       </c>
     </row>
     <row r="15" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1824,11 +2251,11 @@
       <c r="E15" s="2"/>
       <c r="F15" s="7">
         <f t="shared" si="1"/>
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H15" s="6">
         <v>0</v>
@@ -1847,7 +2274,7 @@
       </c>
       <c r="N15" s="20">
         <f t="shared" si="2"/>
-        <v>-1900</v>
+        <v>-6800</v>
       </c>
     </row>
     <row r="16" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1860,11 +2287,11 @@
       <c r="E16" s="2"/>
       <c r="F16" s="7">
         <f t="shared" si="1"/>
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H16" s="6">
         <v>0</v>
@@ -1883,7 +2310,7 @@
       </c>
       <c r="N16" s="20">
         <f t="shared" si="2"/>
-        <v>-1900</v>
+        <v>-6800</v>
       </c>
     </row>
     <row r="17" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1896,11 +2323,11 @@
       <c r="E17" s="2"/>
       <c r="F17" s="7">
         <f t="shared" si="1"/>
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H17" s="6">
         <v>0</v>
@@ -1919,7 +2346,7 @@
       </c>
       <c r="N17" s="20">
         <f t="shared" si="2"/>
-        <v>-1900</v>
+        <v>-6800</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1932,11 +2359,11 @@
       <c r="E18" s="2"/>
       <c r="F18" s="7">
         <f t="shared" si="1"/>
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H18" s="6">
         <v>0</v>
@@ -1955,7 +2382,7 @@
       </c>
       <c r="N18" s="20">
         <f t="shared" si="2"/>
-        <v>-1900</v>
+        <v>-6800</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1968,11 +2395,11 @@
       <c r="E19" s="2"/>
       <c r="F19" s="7">
         <f t="shared" si="1"/>
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H19" s="6">
         <v>0</v>
@@ -1991,7 +2418,7 @@
       </c>
       <c r="N19" s="20">
         <f t="shared" si="2"/>
-        <v>-1900</v>
+        <v>-6800</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -2004,11 +2431,11 @@
       <c r="E20" s="2"/>
       <c r="F20" s="7">
         <f t="shared" ref="F20" si="4">F19-I20</f>
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" ref="G20" si="5">G19-J20</f>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H20" s="6">
         <v>0</v>
@@ -2027,7 +2454,7 @@
       </c>
       <c r="N20" s="20">
         <f t="shared" ref="N20" si="7">M20-F20-G20</f>
-        <v>-1900</v>
+        <v>-6800</v>
       </c>
     </row>
     <row r="21" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -2040,11 +2467,11 @@
       <c r="E21" s="2"/>
       <c r="F21" s="7">
         <f t="shared" ref="F21:F25" si="8">F20-I21</f>
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" ref="G21:G25" si="9">G20-J21</f>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H21" s="6">
         <v>0</v>
@@ -2063,7 +2490,7 @@
       </c>
       <c r="N21" s="20">
         <f t="shared" ref="N21:N25" si="11">M21-F21-G21</f>
-        <v>-1900</v>
+        <v>-6800</v>
       </c>
     </row>
     <row r="22" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -2074,11 +2501,11 @@
       <c r="E22" s="2"/>
       <c r="F22" s="7">
         <f t="shared" si="8"/>
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H22" s="6">
         <v>0</v>
@@ -2097,7 +2524,7 @@
       </c>
       <c r="N22" s="20">
         <f t="shared" si="11"/>
-        <v>-1900</v>
+        <v>-6800</v>
       </c>
     </row>
     <row r="23" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -2108,11 +2535,11 @@
       <c r="E23" s="2"/>
       <c r="F23" s="7">
         <f t="shared" si="8"/>
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H23" s="6">
         <v>0</v>
@@ -2131,7 +2558,7 @@
       </c>
       <c r="N23" s="20">
         <f t="shared" si="11"/>
-        <v>-1900</v>
+        <v>-6800</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -2142,11 +2569,11 @@
       <c r="E24" s="2"/>
       <c r="F24" s="7">
         <f t="shared" si="8"/>
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H24" s="6">
         <v>0</v>
@@ -2165,7 +2592,7 @@
       </c>
       <c r="N24" s="20">
         <f t="shared" si="11"/>
-        <v>-1900</v>
+        <v>-6800</v>
       </c>
     </row>
     <row r="25" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -2174,11 +2601,11 @@
       <c r="E25" s="2"/>
       <c r="F25" s="7">
         <f t="shared" si="8"/>
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H25" s="6">
         <v>0</v>
@@ -2197,15 +2624,15 @@
       </c>
       <c r="N25" s="20">
         <f t="shared" si="11"/>
-        <v>-1900</v>
+        <v>-6800</v>
       </c>
     </row>
     <row r="27" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D28" s="9" t="s">
@@ -2276,7 +2703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950C07E0-6136-4D0C-A842-F150475BA4E5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2307,34 +2734,34 @@
     <row r="1" spans="3:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
+      <c r="C3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
     </row>
     <row r="4" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="30"/>
     </row>
     <row r="5" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
@@ -3090,11 +3517,11 @@
       </c>
     </row>
     <row r="27" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D28" s="9" t="s">
@@ -3165,12 +3592,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A022CD6-754C-4E49-9CCD-B96F73C0F03C}">
   <dimension ref="B3:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3188,72 +3615,72 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="E3" s="29" t="s">
+      <c r="C3" s="32"/>
+      <c r="E3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="H3" s="29" t="s">
+      <c r="F3" s="32"/>
+      <c r="H3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="K3" s="29" t="s">
+      <c r="I3" s="32"/>
+      <c r="K3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="N3" s="29" t="s">
+      <c r="L3" s="32"/>
+      <c r="N3" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="29"/>
+      <c r="O3" s="32"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="30">
-        <v>2600</v>
+      <c r="C5" s="22">
+        <v>4000</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="22">
         <v>0</v>
       </c>
       <c r="H5" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="23">
         <v>2600</v>
       </c>
       <c r="K5" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="22">
         <v>1060</v>
       </c>
       <c r="N5" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O5" s="23">
         <f>I5</f>
         <v>2600</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C6" s="30"/>
+      <c r="C6" s="22"/>
       <c r="K6" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="22">
         <v>170</v>
       </c>
       <c r="N6" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="24">
         <f>L12</f>
         <v>1980</v>
       </c>
@@ -3262,13 +3689,13 @@
       <c r="K7" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="22">
         <v>90</v>
       </c>
       <c r="N7" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="23">
         <f>SUM(O5-O6)</f>
         <v>620</v>
       </c>
@@ -3277,13 +3704,13 @@
       <c r="K8" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="22">
         <v>100</v>
       </c>
       <c r="N8" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="31">
+      <c r="O8" s="23">
         <f>SUM(O7/2)</f>
         <v>310</v>
       </c>
@@ -3292,13 +3719,13 @@
       <c r="K9" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="22">
         <v>100</v>
       </c>
       <c r="N9" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="30">
+      <c r="O9" s="22">
         <f>SUM(O6/2)</f>
         <v>990</v>
       </c>
@@ -3307,7 +3734,7 @@
       <c r="K10" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="22">
         <v>300</v>
       </c>
     </row>
@@ -3315,22 +3742,22 @@
       <c r="K11" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="22">
         <v>160</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="L12" s="30">
+      <c r="L12" s="22">
         <f>SUM(L5:L11)</f>
         <v>1980</v>
       </c>
     </row>
     <row r="14" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="Q14" s="29" t="s">
+      <c r="Q14" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
     </row>
     <row r="15" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="Q15" s="33">
@@ -3354,7 +3781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF86D54-5D3D-411D-8D4D-CF2AE3CCF34E}">
   <dimension ref="B3:O12"/>
   <sheetViews>
@@ -3378,72 +3805,72 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="E3" s="29" t="s">
+      <c r="C3" s="32"/>
+      <c r="E3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="H3" s="29" t="s">
+      <c r="F3" s="32"/>
+      <c r="H3" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="K3" s="29" t="s">
+      <c r="I3" s="32"/>
+      <c r="K3" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="N3" s="29" t="s">
+      <c r="L3" s="32"/>
+      <c r="N3" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="29"/>
+      <c r="O3" s="32"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="22">
         <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="22">
         <v>0</v>
       </c>
       <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="24">
         <v>1000</v>
       </c>
       <c r="K5" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="22">
         <v>0</v>
       </c>
       <c r="N5" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O5" s="23">
         <f>I5</f>
         <v>1000</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="30"/>
+      <c r="C6" s="22"/>
       <c r="K6" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="22">
         <v>0</v>
       </c>
       <c r="N6" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="24">
         <f>L12</f>
         <v>0</v>
       </c>
@@ -3452,13 +3879,13 @@
       <c r="K7" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="22">
         <v>0</v>
       </c>
       <c r="N7" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="23">
         <f>SUM(O5-O6)</f>
         <v>1000</v>
       </c>
@@ -3467,13 +3894,13 @@
       <c r="K8" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="22">
         <v>0</v>
       </c>
       <c r="N8" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="31">
+      <c r="O8" s="23">
         <f>SUM(O6/2)</f>
         <v>0</v>
       </c>
@@ -3482,13 +3909,13 @@
       <c r="K9" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="22">
         <v>0</v>
       </c>
       <c r="N9" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="30">
+      <c r="O9" s="22">
         <f>SUM(O5/2)</f>
         <v>500</v>
       </c>
@@ -3497,7 +3924,7 @@
       <c r="K10" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="22">
         <v>0</v>
       </c>
     </row>
@@ -3505,12 +3932,12 @@
       <c r="K11" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L12" s="30">
+      <c r="L12" s="22">
         <f>SUM(L5:L11)</f>
         <v>0</v>
       </c>

--- a/Documents/FinancePlanner.xlsx
+++ b/Documents/FinancePlanner.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeBase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504C05DE-E498-421E-8F34-4F6A7A026167}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631B5C05-C384-4F37-ACE4-EE49ABF65C8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-3990" windowWidth="15600" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HouseSaleFunds" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="96">
   <si>
     <t>Debt Plan</t>
   </si>
@@ -126,12 +126,6 @@
     <t>Mortgage</t>
   </si>
   <si>
-    <t>Electric</t>
-  </si>
-  <si>
-    <t>Comcast</t>
-  </si>
-  <si>
     <t>Phone</t>
   </si>
   <si>
@@ -153,12 +147,6 @@
     <t>Bi-Weekly Expenses</t>
   </si>
   <si>
-    <t xml:space="preserve">Food </t>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
     <t>Chris Monthly Bills</t>
   </si>
   <si>
@@ -177,9 +165,6 @@
     <t>Expense 1</t>
   </si>
   <si>
-    <t>Unemployment</t>
-  </si>
-  <si>
     <t>Expense 2</t>
   </si>
   <si>
@@ -219,9 +204,6 @@
     <t>Honeymoon Funds Savings</t>
   </si>
   <si>
-    <t>Replace Cards</t>
-  </si>
-  <si>
     <t>Credit Card Payoff</t>
   </si>
   <si>
@@ -312,13 +294,37 @@
     <t>Primary Bed Stands</t>
   </si>
   <si>
-    <t>Secondary Computer Desk (Disassemble into Closet)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rent 1st, Last, + Rent. </t>
-  </si>
-  <si>
-    <t>Pay Bills / Groceries w/ money till jobs</t>
+    <t xml:space="preserve">Secondary Computer Desk </t>
+  </si>
+  <si>
+    <t>Amy Bookshelf</t>
+  </si>
+  <si>
+    <t>Patio Chairs</t>
+  </si>
+  <si>
+    <t>Wedding Savings</t>
+  </si>
+  <si>
+    <t>Moving Costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wedding Fund </t>
+  </si>
+  <si>
+    <t>Spectrum</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Gas / Groceries</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>02/31/2022</t>
   </si>
 </sst>
 </file>
@@ -676,6 +682,13 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="6"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -703,13 +716,6 @@
     <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="6" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="6"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="60% - Accent1" xfId="3" builtinId="32"/>
@@ -1534,10 +1540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85A47CF-6AC8-4C4D-A41E-CA1810B484A4}">
-  <dimension ref="C1:I39"/>
+  <dimension ref="C1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,241 +1556,239 @@
   <sheetData>
     <row r="1" spans="3:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="26">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="26">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="26">
+        <v>20000</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="26">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="26">
+        <v>15000</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="26">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="26">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="37"/>
-    </row>
-    <row r="3" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="35">
+      <c r="D8" s="26">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="25">
+        <v>5000</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="25">
+        <f>SUM(D4:D9)</f>
         <v>180000</v>
       </c>
     </row>
-    <row r="4" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="36" t="s">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="35">
-        <v>125000</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="35">
-        <v>5000</v>
-      </c>
-      <c r="H5" s="36" t="s">
+      <c r="D13" s="25">
+        <f>D3-D10</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H16" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="35">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="35">
-        <v>25000</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="35">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="35">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="35">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="35">
-        <v>4000</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="34">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="34">
-        <f>SUM(D4:D10)</f>
-        <v>167500</v>
-      </c>
-      <c r="H11" s="38" t="s">
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H33" s="27" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="H12" s="38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="34">
-        <f>D3-D11</f>
-        <v>12500</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H20" s="38" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H21" s="38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H22" s="38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H23" s="38" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H24" s="38" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H25" s="38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H26" s="38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H27" s="38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H28" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H29" s="38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H30" s="38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H31" s="38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="8:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H33" s="36" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="34" spans="8:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H35" s="38" t="s">
-        <v>74</v>
+      <c r="H35" s="28" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H36" s="38" t="s">
-        <v>75</v>
+      <c r="H36" s="28" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H37" s="38" t="s">
-        <v>78</v>
+      <c r="H37" s="28" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H38" s="38" t="s">
-        <v>79</v>
+      <c r="H38" s="28" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H39" s="38" t="s">
-        <v>86</v>
+      <c r="H39" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H42" s="28" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1804,7 +1808,934 @@
   <dimension ref="C1:N36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="N33" sqref="N33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="1.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
+    </row>
+    <row r="4" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="35"/>
+    </row>
+    <row r="5" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>44407</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1300</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7">
+        <v>5000</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3500</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>5000</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="4">
+        <f>D6+H6-I6-J6-K6</f>
+        <v>-3700</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>44423</v>
+      </c>
+      <c r="D7" s="18">
+        <v>40600</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7">
+        <f>F6-I7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" ref="G7:G19" si="0">G6-J7</f>
+        <v>3500</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>5000</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>15000</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="19">
+        <f>D7+H7-I7-J7-K7+M6</f>
+        <v>16900</v>
+      </c>
+      <c r="N7" s="20">
+        <f>M7-F7-G7</f>
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>44439</v>
+      </c>
+      <c r="D8" s="18">
+        <v>300</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" ref="F8:F19" si="1">F7-I8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="19">
+        <f>D8+H8-I8-J8-K8+M7</f>
+        <v>17200</v>
+      </c>
+      <c r="N8" s="20">
+        <f t="shared" ref="N8:N19" si="2">M8-F8-G8</f>
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>44454</v>
+      </c>
+      <c r="D9" s="18">
+        <v>300</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="19">
+        <f t="shared" ref="M9:M19" si="3">D9+H9-I9-J9-K9+M8</f>
+        <v>17500</v>
+      </c>
+      <c r="N9" s="20">
+        <f t="shared" si="2"/>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>44469</v>
+      </c>
+      <c r="D10" s="18">
+        <v>300</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="19">
+        <f t="shared" si="3"/>
+        <v>17800</v>
+      </c>
+      <c r="N10" s="20">
+        <f t="shared" si="2"/>
+        <v>14300</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>44484</v>
+      </c>
+      <c r="D11" s="18">
+        <v>300</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="19">
+        <f t="shared" si="3"/>
+        <v>18100</v>
+      </c>
+      <c r="N11" s="20">
+        <f t="shared" si="2"/>
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>44500</v>
+      </c>
+      <c r="D12" s="18">
+        <v>3800</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>3500</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="19">
+        <f t="shared" si="3"/>
+        <v>18400</v>
+      </c>
+      <c r="N12" s="20">
+        <f t="shared" si="2"/>
+        <v>18400</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>44515</v>
+      </c>
+      <c r="D13" s="18">
+        <v>300</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="19">
+        <f t="shared" si="3"/>
+        <v>18700</v>
+      </c>
+      <c r="N13" s="20">
+        <f t="shared" si="2"/>
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <v>44530</v>
+      </c>
+      <c r="D14" s="18">
+        <v>300</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="19">
+        <f t="shared" si="3"/>
+        <v>19000</v>
+      </c>
+      <c r="N14" s="20">
+        <f t="shared" si="2"/>
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <v>44545</v>
+      </c>
+      <c r="D15" s="18">
+        <v>300</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="21"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="19">
+        <f t="shared" si="3"/>
+        <v>19300</v>
+      </c>
+      <c r="N15" s="20">
+        <f t="shared" si="2"/>
+        <v>19300</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <v>44561</v>
+      </c>
+      <c r="D16" s="18">
+        <v>300</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="19">
+        <f t="shared" si="3"/>
+        <v>19600</v>
+      </c>
+      <c r="N16" s="20">
+        <f t="shared" si="2"/>
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>44576</v>
+      </c>
+      <c r="D17" s="18">
+        <v>300</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="19">
+        <f t="shared" si="3"/>
+        <v>19900</v>
+      </c>
+      <c r="N17" s="20">
+        <f t="shared" si="2"/>
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>44592</v>
+      </c>
+      <c r="D18" s="18">
+        <v>300</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="19">
+        <f t="shared" si="3"/>
+        <v>20200</v>
+      </c>
+      <c r="N18" s="20">
+        <f t="shared" si="2"/>
+        <v>20200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>44607</v>
+      </c>
+      <c r="D19" s="18">
+        <v>300</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="19">
+        <f t="shared" si="3"/>
+        <v>20500</v>
+      </c>
+      <c r="N19" s="20">
+        <f t="shared" si="2"/>
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="18">
+        <v>300</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="7">
+        <f t="shared" ref="F20" si="4">F19-I20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" ref="G20" si="5">G19-J20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="19">
+        <f t="shared" ref="M20" si="6">D20+H20-I20-J20-K20+M19</f>
+        <v>20800</v>
+      </c>
+      <c r="N20" s="20">
+        <f t="shared" ref="N20" si="7">M20-F20-G20</f>
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>44635</v>
+      </c>
+      <c r="D21" s="18">
+        <v>3900</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="7">
+        <f t="shared" ref="F21:F25" si="8">F20-I21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" ref="G21:G25" si="9">G20-J21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="19">
+        <f t="shared" ref="M21:M25" si="10">D21+H21-I21-J21-K21+M20</f>
+        <v>24700</v>
+      </c>
+      <c r="N21" s="20">
+        <f t="shared" ref="N21:N25" si="11">M21-F21-G21</f>
+        <v>24700</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>44651</v>
+      </c>
+      <c r="D22" s="18">
+        <v>300</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="19">
+        <f t="shared" si="10"/>
+        <v>25000</v>
+      </c>
+      <c r="N22" s="20">
+        <f t="shared" si="11"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <v>44666</v>
+      </c>
+      <c r="D23" s="18">
+        <v>300</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="19">
+        <f t="shared" si="10"/>
+        <v>25300</v>
+      </c>
+      <c r="N23" s="20">
+        <f t="shared" si="11"/>
+        <v>25300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>44681</v>
+      </c>
+      <c r="D24" s="18">
+        <v>300</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="19">
+        <f t="shared" si="10"/>
+        <v>25600</v>
+      </c>
+      <c r="N24" s="20">
+        <f t="shared" si="11"/>
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="19">
+        <f t="shared" si="10"/>
+        <v>25600</v>
+      </c>
+      <c r="N25" s="20">
+        <f t="shared" si="11"/>
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="D27" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
+      <c r="K32" s="8">
+        <v>15000</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D35" s="10"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17">
+        <f>SUBTOTAL(109,Table32342[Estimated Cost])</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:N4"/>
+    <mergeCell ref="D27:F27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="52" orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950C07E0-6136-4D0C-A842-F150475BA4E5}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="C1:N36"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1827,34 +2758,34 @@
     <row r="1" spans="3:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27"/>
+      <c r="C3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
     </row>
     <row r="4" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="30"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="35"/>
     </row>
     <row r="5" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
@@ -1870,10 +2801,10 @@
         <v>3</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>12</v>
@@ -1896,19 +2827,17 @@
     </row>
     <row r="6" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
-        <v>44309</v>
+        <v>44407</v>
       </c>
       <c r="D6" s="18">
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="7">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G6" s="7">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H6" s="6">
         <v>0</v>
@@ -1931,21 +2860,19 @@
     </row>
     <row r="7" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
-        <v>44323</v>
+        <v>44421</v>
       </c>
       <c r="D7" s="18">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="7">
         <f>F6-I7</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" ref="G7:G19" si="0">G6-J7</f>
-        <v>3500</v>
+        <f t="shared" ref="G7:G25" si="0">G6-J7</f>
+        <v>0</v>
       </c>
       <c r="H7" s="6">
         <v>0</v>
@@ -1964,26 +2891,24 @@
       </c>
       <c r="N7" s="20">
         <f>M7-F7-G7</f>
-        <v>-7500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
-        <v>44337</v>
+        <v>44435</v>
       </c>
       <c r="D8" s="18">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="7">
-        <f t="shared" ref="F8:F19" si="1">F7-I8</f>
-        <v>4000</v>
+        <f t="shared" ref="F8:F25" si="1">F7-I8</f>
+        <v>0</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
@@ -2003,27 +2928,25 @@
         <v>0</v>
       </c>
       <c r="N8" s="20">
-        <f t="shared" ref="N8:N19" si="2">M8-F8-G8</f>
-        <v>-7500</v>
+        <f t="shared" ref="N8:N25" si="2">M8-F8-G8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
-        <v>44351</v>
+        <v>44449</v>
       </c>
       <c r="D9" s="18">
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="7">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H9" s="6">
         <v>0</v>
@@ -2039,31 +2962,29 @@
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="19">
-        <f t="shared" ref="M9:M19" si="3">D9+H9-I9-J9-K9+M8</f>
+        <f t="shared" ref="M9:M25" si="3">D9+H9-I9-J9-K9+M8</f>
         <v>0</v>
       </c>
       <c r="N9" s="20">
         <f t="shared" si="2"/>
-        <v>-7500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
-        <v>44365</v>
+        <v>44463</v>
       </c>
       <c r="D10" s="18">
         <v>0</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="7">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H10" s="6">
         <v>0</v>
@@ -2084,26 +3005,24 @@
       </c>
       <c r="N10" s="20">
         <f t="shared" si="2"/>
-        <v>-7500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
-        <v>44379</v>
+        <v>44477</v>
       </c>
       <c r="D11" s="18">
         <v>0</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="7">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
@@ -2124,26 +3043,24 @@
       </c>
       <c r="N11" s="20">
         <f t="shared" si="2"/>
-        <v>-7500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
-        <v>44393</v>
+        <v>44491</v>
       </c>
       <c r="D12" s="18">
         <v>0</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="7">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
@@ -2162,26 +3079,24 @@
       </c>
       <c r="N12" s="20">
         <f t="shared" si="2"/>
-        <v>-7500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
-        <v>44407</v>
+        <v>44505</v>
       </c>
       <c r="D13" s="18">
-        <v>700</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="7">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
@@ -2196,30 +3111,28 @@
       <c r="L13" s="2"/>
       <c r="M13" s="19">
         <f t="shared" si="3"/>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="N13" s="20">
         <f t="shared" si="2"/>
-        <v>-6800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
-        <v>44421</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>44519</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="7">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H14" s="6">
         <v>0</v>
@@ -2234,28 +3147,26 @@
       <c r="L14" s="2"/>
       <c r="M14" s="19">
         <f t="shared" si="3"/>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="N14" s="20">
         <f t="shared" si="2"/>
-        <v>-6800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="1">
-        <v>44435</v>
-      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="18">
         <v>0</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="7">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H15" s="6">
         <v>0</v>
@@ -2270,28 +3181,26 @@
       <c r="L15" s="2"/>
       <c r="M15" s="19">
         <f t="shared" si="3"/>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="N15" s="20">
         <f t="shared" si="2"/>
-        <v>-6800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="1">
-        <v>44449</v>
-      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="18">
         <v>0</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="7">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H16" s="6">
         <v>0</v>
@@ -2306,28 +3215,26 @@
       <c r="L16" s="2"/>
       <c r="M16" s="19">
         <f t="shared" si="3"/>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="N16" s="20">
         <f t="shared" si="2"/>
-        <v>-6800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="1">
-        <v>44463</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="18">
         <v>0</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="7">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H17" s="6">
         <v>0</v>
@@ -2342,28 +3249,26 @@
       <c r="L17" s="2"/>
       <c r="M17" s="19">
         <f t="shared" si="3"/>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="N17" s="20">
         <f t="shared" si="2"/>
-        <v>-6800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="1">
-        <v>44477</v>
-      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="18">
         <v>0</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="7">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H18" s="6">
         <v>0</v>
@@ -2378,28 +3283,26 @@
       <c r="L18" s="2"/>
       <c r="M18" s="19">
         <f t="shared" si="3"/>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="N18" s="20">
         <f t="shared" si="2"/>
-        <v>-6800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="1">
-        <v>44491</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="18">
         <v>0</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="7">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H19" s="6">
         <v>0</v>
@@ -2414,906 +3317,15 @@
       <c r="L19" s="2"/>
       <c r="M19" s="19">
         <f t="shared" si="3"/>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="N19" s="20">
         <f t="shared" si="2"/>
-        <v>-6800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="1">
-        <v>44505</v>
-      </c>
-      <c r="D20" s="18">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="7">
-        <f t="shared" ref="F20" si="4">F19-I20</f>
-        <v>4000</v>
-      </c>
-      <c r="G20" s="7">
-        <f t="shared" ref="G20" si="5">G19-J20</f>
-        <v>3500</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8">
-        <v>0</v>
-      </c>
-      <c r="J20" s="8">
-        <v>0</v>
-      </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="19">
-        <f t="shared" ref="M20" si="6">D20+H20-I20-J20-K20+M19</f>
-        <v>700</v>
-      </c>
-      <c r="N20" s="20">
-        <f t="shared" ref="N20" si="7">M20-F20-G20</f>
-        <v>-6800</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="1">
-        <v>44519</v>
-      </c>
-      <c r="D21" s="18">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="7">
-        <f t="shared" ref="F21:F25" si="8">F20-I21</f>
-        <v>4000</v>
-      </c>
-      <c r="G21" s="7">
-        <f t="shared" ref="G21:G25" si="9">G20-J21</f>
-        <v>3500</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8">
-        <v>0</v>
-      </c>
-      <c r="J21" s="8">
-        <v>0</v>
-      </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="19">
-        <f t="shared" ref="M21:M25" si="10">D21+H21-I21-J21-K21+M20</f>
-        <v>700</v>
-      </c>
-      <c r="N21" s="20">
-        <f t="shared" ref="N21:N25" si="11">M21-F21-G21</f>
-        <v>-6800</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-      <c r="D22" s="18">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="7">
-        <f t="shared" si="8"/>
-        <v>4000</v>
-      </c>
-      <c r="G22" s="7">
-        <f t="shared" si="9"/>
-        <v>3500</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8">
-        <v>0</v>
-      </c>
-      <c r="J22" s="8">
-        <v>0</v>
-      </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="19">
-        <f t="shared" si="10"/>
-        <v>700</v>
-      </c>
-      <c r="N22" s="20">
-        <f t="shared" si="11"/>
-        <v>-6800</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-      <c r="D23" s="18">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="7">
-        <f t="shared" si="8"/>
-        <v>4000</v>
-      </c>
-      <c r="G23" s="7">
-        <f t="shared" si="9"/>
-        <v>3500</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0</v>
-      </c>
-      <c r="I23" s="8">
-        <v>0</v>
-      </c>
-      <c r="J23" s="8">
-        <v>0</v>
-      </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="19">
-        <f t="shared" si="10"/>
-        <v>700</v>
-      </c>
-      <c r="N23" s="20">
-        <f t="shared" si="11"/>
-        <v>-6800</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-      <c r="D24" s="18">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="7">
-        <f t="shared" si="8"/>
-        <v>4000</v>
-      </c>
-      <c r="G24" s="7">
-        <f t="shared" si="9"/>
-        <v>3500</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8">
-        <v>0</v>
-      </c>
-      <c r="J24" s="8">
-        <v>0</v>
-      </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="19">
-        <f t="shared" si="10"/>
-        <v>700</v>
-      </c>
-      <c r="N24" s="20">
-        <f t="shared" si="11"/>
-        <v>-6800</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="7">
-        <f t="shared" si="8"/>
-        <v>4000</v>
-      </c>
-      <c r="G25" s="7">
-        <f t="shared" si="9"/>
-        <v>3500</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0</v>
-      </c>
-      <c r="I25" s="8">
-        <v>0</v>
-      </c>
-      <c r="J25" s="8">
-        <v>0</v>
-      </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="19">
-        <f t="shared" si="10"/>
-        <v>700</v>
-      </c>
-      <c r="N25" s="20">
-        <f t="shared" si="11"/>
-        <v>-6800</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="D27" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-    </row>
-    <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D35" s="10"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15"/>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D36" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="17">
-        <f>SUBTOTAL(109,Table32342[Estimated Cost])</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:N4"/>
-    <mergeCell ref="D27:F27"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="52" orientation="landscape" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950C07E0-6136-4D0C-A842-F150475BA4E5}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="C1:N36"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="1.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="3:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27"/>
-    </row>
-    <row r="4" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="30"/>
-    </row>
-    <row r="5" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="1">
-        <v>44309</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="4">
-        <f>D6+H6-I6-J6-K6</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
-        <v>44323</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="7">
-        <f>F6-I7</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" ref="G7:G25" si="0">G6-J7</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="19">
-        <f>D7+H7-I7-J7-K7+M6</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="20">
-        <f>M7-F7-G7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="1">
-        <v>44337</v>
-      </c>
-      <c r="D8" s="18">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="7">
-        <f t="shared" ref="F8:F25" si="1">F7-I8</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="19">
-        <f>D8+H8-I8-J8-K8+M7</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="20">
-        <f t="shared" ref="N8:N25" si="2">M8-F8-G8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="1">
-        <v>44351</v>
-      </c>
-      <c r="D9" s="18">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="19">
-        <f t="shared" ref="M9:M25" si="3">D9+H9-I9-J9-K9+M8</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="1">
-        <v>44365</v>
-      </c>
-      <c r="D10" s="18">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
-        <v>44379</v>
-      </c>
-      <c r="D11" s="18">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="1">
-        <v>44393</v>
-      </c>
-      <c r="D12" s="18">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="1">
-        <v>44407</v>
-      </c>
-      <c r="D13" s="18">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="1">
-        <v>44421</v>
-      </c>
-      <c r="D14" s="18">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="1">
-        <v>44435</v>
-      </c>
-      <c r="D15" s="18">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0</v>
-      </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="1">
-        <v>44449</v>
-      </c>
-      <c r="D16" s="18">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0</v>
-      </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="1">
-        <v>44463</v>
-      </c>
-      <c r="D17" s="18">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="1">
-        <v>44477</v>
-      </c>
-      <c r="D18" s="18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8">
-        <v>0</v>
-      </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="1">
-        <v>44491</v>
-      </c>
-      <c r="D19" s="18">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8">
-        <v>0</v>
-      </c>
-      <c r="J19" s="8">
-        <v>0</v>
-      </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="1">
-        <v>44505</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="18">
         <v>0</v>
       </c>
@@ -3347,9 +3359,7 @@
       </c>
     </row>
     <row r="21" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="1">
-        <v>44519</v>
-      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="18">
         <v>0</v>
       </c>
@@ -3517,11 +3527,11 @@
       </c>
     </row>
     <row r="27" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
     </row>
     <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D28" s="9" t="s">
@@ -3597,7 +3607,7 @@
   <dimension ref="B3:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3607,7 +3617,7 @@
     <col min="7" max="7" width="3.140625" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" customWidth="1"/>
     <col min="13" max="13" width="3.140625" customWidth="1"/>
     <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
@@ -3615,33 +3625,33 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="E3" s="32" t="s">
+      <c r="C3" s="37"/>
+      <c r="E3" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="H3" s="32" t="s">
+      <c r="F3" s="37"/>
+      <c r="H3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="K3" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="32"/>
-      <c r="N3" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="32"/>
+      <c r="I3" s="37"/>
+      <c r="K3" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="N3" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="37"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="22">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -3653,118 +3663,118 @@
         <v>27</v>
       </c>
       <c r="I5" s="23">
-        <v>2600</v>
+        <v>3850</v>
       </c>
       <c r="K5" t="s">
         <v>28</v>
       </c>
       <c r="L5" s="22">
-        <v>1060</v>
+        <v>1800</v>
       </c>
       <c r="N5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O5" s="23">
         <f>I5</f>
-        <v>2600</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C6" s="22"/>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="L6" s="22">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="N6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O6" s="24">
         <f>L12</f>
-        <v>1980</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="L7" s="22">
         <v>90</v>
       </c>
       <c r="N7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O7" s="23">
         <f>SUM(O5-O6)</f>
-        <v>620</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L8" s="22">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O8" s="23">
         <f>SUM(O7/2)</f>
-        <v>310</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="22">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O9" s="22">
         <f>SUM(O6/2)</f>
-        <v>990</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K10" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="L10" s="22">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="L11" s="22">
-        <v>160</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L12" s="22">
         <f>SUM(L5:L11)</f>
-        <v>1980</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="14" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="Q14" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
+      <c r="Q14" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
     </row>
     <row r="15" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="Q15" s="33">
+      <c r="Q15" s="38">
         <v>120000</v>
       </c>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3786,7 +3796,7 @@
   <dimension ref="B3:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3805,26 +3815,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="E3" s="32" t="s">
+      <c r="C3" s="37"/>
+      <c r="E3" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="H3" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="32"/>
-      <c r="K3" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="32"/>
-      <c r="N3" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" s="32"/>
+      <c r="F3" s="37"/>
+      <c r="H3" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="K3" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="N3" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="37"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -3840,35 +3850,35 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="I5" s="24">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L5" s="22">
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="23">
+        <v>31</v>
+      </c>
+      <c r="O5" s="24">
         <f>I5</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C6" s="22"/>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="L6" s="22">
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O6" s="24">
         <f>L12</f>
@@ -3877,28 +3887,28 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L7" s="22">
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O7" s="23">
         <f>SUM(O5-O6)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L8" s="22">
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O8" s="23">
         <f>SUM(O6/2)</f>
@@ -3907,22 +3917,22 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L9" s="22">
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O9" s="22">
         <f>SUM(O5/2)</f>
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L10" s="22">
         <v>0</v>
@@ -3930,7 +3940,7 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L11" s="22">
         <v>0</v>

--- a/Documents/FinancePlanner.xlsx
+++ b/Documents/FinancePlanner.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631B5C05-C384-4F37-ACE4-EE49ABF65C8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BB778F-5D1D-41B5-B32E-ECCFE051C8E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="-3975" windowWidth="15600" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HouseSaleFunds" sheetId="6" r:id="rId1"/>
     <sheet name="ChrisDebtSheet" sheetId="2" r:id="rId2"/>
-    <sheet name="AmyDebtSheet" sheetId="3" r:id="rId3"/>
-    <sheet name="ChrisFinances" sheetId="4" r:id="rId4"/>
-    <sheet name="AmyFinances" sheetId="5" r:id="rId5"/>
+    <sheet name="ChrisFinances" sheetId="4" r:id="rId3"/>
+    <sheet name="CardsToBuy" sheetId="7" r:id="rId4"/>
+    <sheet name="AmyDebtSheet" sheetId="3" r:id="rId5"/>
+    <sheet name="AmyFinances" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="116">
   <si>
     <t>Debt Plan</t>
   </si>
@@ -237,15 +238,6 @@
     <t>Primary Bed</t>
   </si>
   <si>
-    <t>Guest Bed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Give Away Items : </t>
-  </si>
-  <si>
-    <t>Red Couch</t>
-  </si>
-  <si>
     <t>Gaming Table</t>
   </si>
   <si>
@@ -282,9 +274,6 @@
     <t>Xbox + Rock Band Stuff</t>
   </si>
   <si>
-    <t>Board Game Collection (Maybe new Shelves)</t>
-  </si>
-  <si>
     <t>Black Bookcase</t>
   </si>
   <si>
@@ -325,6 +314,78 @@
   </si>
   <si>
     <t>02/31/2022</t>
+  </si>
+  <si>
+    <t>Magic Cards</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Pricer Per</t>
+  </si>
+  <si>
+    <t>Price Total</t>
+  </si>
+  <si>
+    <t>Force of Negation</t>
+  </si>
+  <si>
+    <t>Force of Will</t>
+  </si>
+  <si>
+    <t>Snapcaster Mage</t>
+  </si>
+  <si>
+    <t>Misty Rainforest</t>
+  </si>
+  <si>
+    <t>Tundra</t>
+  </si>
+  <si>
+    <t>Cryptic Command</t>
+  </si>
+  <si>
+    <t>Prismatic Ending</t>
+  </si>
+  <si>
+    <t>Supreme Verdict</t>
+  </si>
+  <si>
+    <t>Archmage's Charm</t>
+  </si>
+  <si>
+    <t>Blossoming Calm</t>
+  </si>
+  <si>
+    <t>Sanctifier en-Vec</t>
+  </si>
+  <si>
+    <t>Thoughtsieze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawn Mower </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office Glass Table </t>
+  </si>
+  <si>
+    <t>Guest Bed (Put in Secondary Closet I think )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give Away / Trash Items : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Board Game Shelving </t>
+  </si>
+  <si>
+    <t>Red Couch (FB Market, Give Away)</t>
+  </si>
+  <si>
+    <t>Board Game Collection</t>
   </si>
 </sst>
 </file>
@@ -646,7 +707,7 @@
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -716,6 +777,7 @@
     <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="60% - Accent1" xfId="3" builtinId="32"/>
@@ -1540,10 +1602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85A47CF-6AC8-4C4D-A41E-CA1810B484A4}">
-  <dimension ref="C1:I42"/>
+  <dimension ref="C1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,6 +1613,7 @@
     <col min="1" max="2" width="2.140625" customWidth="1"/>
     <col min="3" max="3" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="1.42578125" customWidth="1"/>
     <col min="8" max="8" width="48.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1560,6 +1623,12 @@
         <v>50</v>
       </c>
       <c r="D2" s="29"/>
+      <c r="H2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="26">
+        <v>15000</v>
+      </c>
     </row>
     <row r="3" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="27" t="s">
@@ -1568,6 +1637,12 @@
       <c r="D3" s="26">
         <v>180000</v>
       </c>
+      <c r="H3" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="26">
+        <v>15000</v>
+      </c>
     </row>
     <row r="4" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="27" t="s">
@@ -1576,6 +1651,8 @@
       <c r="D4" s="26">
         <v>120000</v>
       </c>
+      <c r="H4" s="27"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="27" t="s">
@@ -1584,12 +1661,6 @@
       <c r="D5" s="26">
         <v>20000</v>
       </c>
-      <c r="H5" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="26">
-        <v>15000</v>
-      </c>
     </row>
     <row r="6" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="27" t="s">
@@ -1598,106 +1669,112 @@
       <c r="D6" s="26">
         <v>15000</v>
       </c>
-      <c r="H6" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="26">
-        <v>15000</v>
-      </c>
     </row>
     <row r="7" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="27" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="D7" s="26">
-        <v>15000</v>
+        <v>2100</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="26">
-        <v>5000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="9" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="26">
+        <v>5000</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="25">
-        <v>5000</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D10" s="25">
-        <f>SUM(D4:D9)</f>
+        <v>2900</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="25">
+        <f>SUM(D4:D10)</f>
         <v>180000</v>
       </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="H11" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="H12" s="28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="25">
-        <f>D3-D10</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="25">
+        <f>D3-D11</f>
+        <v>0</v>
+      </c>
       <c r="H14" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H15" s="28" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="H16" s="28" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H17" s="28" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H18" s="28" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H19" s="28" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H20" s="28" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H21" s="28" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.25">
@@ -1712,83 +1789,88 @@
     </row>
     <row r="24" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H24" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H25" s="28" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H26" s="28" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H27" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H28" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H29" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H30" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="8:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H33" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="8:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="8:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H31" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H35" s="28" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H36" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H37" s="28" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H38" s="28" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H39" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H40" s="28" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H41" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H42" s="28" t="s">
-        <v>87</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H43" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H44" s="28" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1808,7 +1890,7 @@
   <dimension ref="C1:N36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="D6" sqref="D6:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,7 +2009,7 @@
         <v>5000</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M6" s="4">
         <f>D6+H6-I6-J6-K6</f>
@@ -1968,7 +2050,7 @@
         <v>15000</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M7" s="19">
         <f>D7+H7-I7-J7-K7+M6</f>
@@ -2435,7 +2517,7 @@
     </row>
     <row r="20" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D20" s="18">
         <v>300</v>
@@ -2686,7 +2768,7 @@
         <v>15000</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
@@ -2728,6 +2810,416 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A022CD6-754C-4E49-9CCD-B96F73C0F03C}">
+  <dimension ref="B3:S15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="3.140625" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="E3" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="37"/>
+      <c r="H3" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="K3" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="N3" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="37"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="22">
+        <v>5000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="23">
+        <v>3850</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="22">
+        <v>1800</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="23">
+        <f>I5</f>
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C6" s="22"/>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="22">
+        <v>200</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="24">
+        <f>L12</f>
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="22">
+        <v>90</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="23">
+        <f>SUM(O5-O6)</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="22">
+        <v>90</v>
+      </c>
+      <c r="N8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="23">
+        <f>SUM(O7/2)</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="22">
+        <v>110</v>
+      </c>
+      <c r="N9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="22">
+        <f>SUM(O6/2)</f>
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="22">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L12" s="22">
+        <f>SUM(L5:L11)</f>
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q14" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+    </row>
+    <row r="15" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q15" s="38">
+        <v>120000</v>
+      </c>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84F4EBF-98CA-422A-BA9E-89CFBE31CB4A}">
+  <dimension ref="C3:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="18">
+        <v>100</v>
+      </c>
+      <c r="F4" s="19">
+        <f>C4*E4</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="18">
+        <v>115</v>
+      </c>
+      <c r="F5" s="19">
+        <f t="shared" ref="F5:F15" si="0">C5*E5</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="18">
+        <v>75</v>
+      </c>
+      <c r="F6" s="19">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="18">
+        <v>42</v>
+      </c>
+      <c r="F7" s="19">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="18">
+        <v>450</v>
+      </c>
+      <c r="F8" s="19">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="18">
+        <v>32</v>
+      </c>
+      <c r="F9" s="19">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="18">
+        <v>18</v>
+      </c>
+      <c r="F10" s="19">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="18">
+        <v>7</v>
+      </c>
+      <c r="F11" s="19">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="18">
+        <v>3</v>
+      </c>
+      <c r="F12" s="19">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="F13" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="18">
+        <v>2</v>
+      </c>
+      <c r="F14" s="19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="18">
+        <v>20</v>
+      </c>
+      <c r="F15" s="19">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="39">
+        <f>SUM(F4:F15)</f>
+        <v>2107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950C07E0-6136-4D0C-A842-F150475BA4E5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3602,196 +4094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A022CD6-754C-4E49-9CCD-B96F73C0F03C}">
-  <dimension ref="B3:S15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" customWidth="1"/>
-    <col min="7" max="7" width="3.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
-    <col min="13" max="13" width="3.140625" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="E3" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="37"/>
-      <c r="H3" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="37"/>
-      <c r="K3" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="37"/>
-      <c r="N3" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="37"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="22">
-        <v>5000</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="22">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="23">
-        <v>3850</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="22">
-        <v>1800</v>
-      </c>
-      <c r="N5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="23">
-        <f>I5</f>
-        <v>3850</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C6" s="22"/>
-      <c r="K6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" s="22">
-        <v>200</v>
-      </c>
-      <c r="N6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="24">
-        <f>L12</f>
-        <v>3390</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="K7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" s="22">
-        <v>90</v>
-      </c>
-      <c r="N7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="23">
-        <f>SUM(O5-O6)</f>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="K8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="22">
-        <v>90</v>
-      </c>
-      <c r="N8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" s="23">
-        <f>SUM(O7/2)</f>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="K9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="22">
-        <v>110</v>
-      </c>
-      <c r="N9" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" s="22">
-        <f>SUM(O6/2)</f>
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="K10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" s="22">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="K11" t="s">
-        <v>93</v>
-      </c>
-      <c r="L11" s="22">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="L12" s="22">
-        <f>SUM(L5:L11)</f>
-        <v>3390</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="Q14" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-    </row>
-    <row r="15" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="Q15" s="38">
-        <v>120000</v>
-      </c>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K3:L3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF86D54-5D3D-411D-8D4D-CF2AE3CCF34E}">
   <dimension ref="B3:O12"/>
   <sheetViews>
@@ -3850,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I5" s="24">
         <v>0</v>

--- a/Documents/FinancePlanner.xlsx
+++ b/Documents/FinancePlanner.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BB778F-5D1D-41B5-B32E-ECCFE051C8E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2053358A-593C-4252-8776-C959B4ABF225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-3975" windowWidth="15600" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="-1095" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HouseSaleFunds" sheetId="6" r:id="rId1"/>
-    <sheet name="ChrisDebtSheet" sheetId="2" r:id="rId2"/>
-    <sheet name="ChrisFinances" sheetId="4" r:id="rId3"/>
-    <sheet name="CardsToBuy" sheetId="7" r:id="rId4"/>
-    <sheet name="AmyDebtSheet" sheetId="3" r:id="rId5"/>
-    <sheet name="AmyFinances" sheetId="5" r:id="rId6"/>
+    <sheet name="MovingTimeline" sheetId="8" r:id="rId1"/>
+    <sheet name="HouseSaleFunds" sheetId="6" r:id="rId2"/>
+    <sheet name="ChrisDebtSheet" sheetId="2" r:id="rId3"/>
+    <sheet name="ChrisFinances" sheetId="4" r:id="rId4"/>
+    <sheet name="CardsToBuy" sheetId="7" r:id="rId5"/>
+    <sheet name="AmyDebtSheet" sheetId="3" r:id="rId6"/>
+    <sheet name="AmyFinances" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="137">
   <si>
     <t>Debt Plan</t>
   </si>
@@ -289,9 +290,6 @@
     <t>Amy Bookshelf</t>
   </si>
   <si>
-    <t>Patio Chairs</t>
-  </si>
-  <si>
     <t>Wedding Savings</t>
   </si>
   <si>
@@ -373,9 +371,6 @@
     <t xml:space="preserve">Office Glass Table </t>
   </si>
   <si>
-    <t>Guest Bed (Put in Secondary Closet I think )</t>
-  </si>
-  <si>
     <t xml:space="preserve">Give Away / Trash Items : </t>
   </si>
   <si>
@@ -386,6 +381,75 @@
   </si>
   <si>
     <t>Board Game Collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Possible Extra Sale Cash </t>
+  </si>
+  <si>
+    <t>Amy CC Debt</t>
+  </si>
+  <si>
+    <t>Remainder for Teeth</t>
+  </si>
+  <si>
+    <t>iPad &amp; iMac Combo</t>
+  </si>
+  <si>
+    <t>Guest Bed (Curb Pickup Final Day)</t>
+  </si>
+  <si>
+    <t>Microwave</t>
+  </si>
+  <si>
+    <t>Moving Timeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day </t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Couch on Facebook </t>
+  </si>
+  <si>
+    <t>Dump Trip : Game Shelf, Trunk, Cat Cage, Gloomhaven Map, Litter Box 2</t>
+  </si>
+  <si>
+    <t>Side of House : Glass Desk, Patio Table, Patio Chairs, Counter Chairs</t>
+  </si>
+  <si>
+    <t>Microwave to Goodwill / SA</t>
+  </si>
+  <si>
+    <t>Tony Get Table ?</t>
+  </si>
+  <si>
+    <t>Give away Xbox + Rock Band to someone by now. Need clean off personal information</t>
+  </si>
+  <si>
+    <t>House goes on Sale! @ $180,000</t>
+  </si>
+  <si>
+    <t>Duke Hooks up Electric, Have Spectrum up by this date too. Final DC Work date</t>
+  </si>
+  <si>
+    <t>Movers Pickup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movers dropoff with Amy at apartment. That bed to curb for pickup. Chris drives over w/ final items. House is empty of belongings by here. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pickup Keys, Test Spectrum with Router. Bring over car full of items movers wont take. ($2100 due this day). </t>
+  </si>
+  <si>
+    <t>Move Complete! By this point hopefully house closing signed for. Funds transferred. Services for house end on the 16th (Comcast, FPL, Water, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris starts new job, any packing unfinished needs to be finalized before the 12th this week. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joe &amp; Rich clean yard. Remove side house items. Take Blower, Mower, Weed-Eater. Cathy cleans inside somewhere near here. </t>
   </si>
 </sst>
 </file>
@@ -397,7 +461,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,8 +597,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,8 +659,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -697,8 +790,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -706,8 +814,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -747,6 +856,7 @@
     <xf numFmtId="6" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="6"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -777,15 +887,24 @@
     <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="20" fillId="7" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="7" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="60% - Accent1" xfId="3" builtinId="32"/>
     <cellStyle name="60% - Accent3" xfId="4" builtinId="40"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="6" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="7" builtinId="10"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
   <dxfs count="20">
@@ -1601,11 +1720,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E305D1-59ED-4982-95A6-940373E4426C}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="C1:D31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="1.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="189.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="3:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+    </row>
+    <row r="5" spans="3:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C6" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C7" s="43">
+        <v>44402</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C8" s="44"/>
+      <c r="D8" s="44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C9" s="44"/>
+      <c r="D9" s="44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C10" s="44"/>
+      <c r="D10" s="44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C11" s="44"/>
+      <c r="D11" s="44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+    </row>
+    <row r="13" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C13" s="43">
+        <v>44408</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C14" s="44"/>
+      <c r="D14" s="44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+    </row>
+    <row r="16" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C16" s="43">
+        <v>44409</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+    </row>
+    <row r="18" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C18" s="43">
+        <v>44414</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
+    </row>
+    <row r="20" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C20" s="43">
+        <v>44416</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
+    </row>
+    <row r="22" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C22" s="43">
+        <v>44417</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+    </row>
+    <row r="24" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C24" s="43">
+        <v>44420</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+    </row>
+    <row r="26" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C26" s="43">
+        <v>44421</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+    </row>
+    <row r="28" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C28" s="43">
+        <v>44422</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+    </row>
+    <row r="30" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+    </row>
+    <row r="31" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="44" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85A47CF-6AC8-4C4D-A41E-CA1810B484A4}">
-  <dimension ref="C1:I44"/>
+  <dimension ref="C1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,10 +1932,10 @@
   <sheetData>
     <row r="1" spans="3:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="29"/>
+      <c r="D2" s="30"/>
       <c r="H2" s="27" t="s">
         <v>53</v>
       </c>
@@ -1672,7 +1985,7 @@
     </row>
     <row r="7" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="26">
         <v>2100</v>
@@ -1749,128 +2062,153 @@
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="H16" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H17" s="28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="26">
+        <v>30000</v>
+      </c>
       <c r="H18" s="28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="26">
+        <v>3000</v>
+      </c>
       <c r="H19" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="26">
+        <v>5000</v>
+      </c>
       <c r="H20" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="26">
+        <f>SUM(D18-D19-D20)</f>
+        <v>22000</v>
+      </c>
       <c r="H21" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H22" s="28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H23" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H24" s="28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H25" s="28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H26" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H27" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H28" s="28" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="8:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H31" s="27" t="s">
+    <row r="27" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H27" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="28" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="8:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H33" s="28" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H34" s="28" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H35" s="28" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H36" s="28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H37" s="28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H38" s="28" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H39" s="28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H41" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="28" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H42" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H43" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H44" s="28" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1882,7 +2220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1890,7 +2228,7 @@
   <dimension ref="C1:N36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1913,34 +2251,34 @@
     <row r="1" spans="3:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32"/>
+      <c r="C3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="33"/>
     </row>
     <row r="4" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="35"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="36"/>
     </row>
     <row r="5" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
@@ -2009,7 +2347,7 @@
         <v>5000</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M6" s="4">
         <f>D6+H6-I6-J6-K6</f>
@@ -2050,7 +2388,7 @@
         <v>15000</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M7" s="19">
         <f>D7+H7-I7-J7-K7+M6</f>
@@ -2517,7 +2855,7 @@
     </row>
     <row r="20" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="18">
         <v>300</v>
@@ -2728,11 +3066,11 @@
       </c>
     </row>
     <row r="27" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D28" s="9" t="s">
@@ -2768,7 +3106,7 @@
         <v>15000</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
@@ -2809,7 +3147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A022CD6-754C-4E49-9CCD-B96F73C0F03C}">
   <dimension ref="B3:S15"/>
   <sheetViews>
@@ -2832,26 +3170,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="E3" s="37" t="s">
+      <c r="C3" s="38"/>
+      <c r="E3" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="H3" s="37" t="s">
+      <c r="F3" s="38"/>
+      <c r="H3" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="K3" s="37" t="s">
+      <c r="I3" s="38"/>
+      <c r="K3" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="N3" s="37" t="s">
+      <c r="L3" s="38"/>
+      <c r="N3" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="37"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -2889,7 +3227,7 @@
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C6" s="22"/>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L6" s="22">
         <v>200</v>
@@ -2904,7 +3242,7 @@
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L7" s="22">
         <v>90</v>
@@ -2957,7 +3295,7 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L11" s="22">
         <v>500</v>
@@ -2970,18 +3308,18 @@
       </c>
     </row>
     <row r="14" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="Q14" s="37" t="s">
+      <c r="Q14" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
     </row>
     <row r="15" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="Q15" s="38">
+      <c r="Q15" s="39">
         <v>120000</v>
       </c>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2998,7 +3336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84F4EBF-98CA-422A-BA9E-89CFBE31CB4A}">
   <dimension ref="C3:F16"/>
   <sheetViews>
@@ -3016,16 +3354,16 @@
   <sheetData>
     <row r="3" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3033,7 +3371,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="18">
         <v>100</v>
@@ -3048,7 +3386,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="18">
         <v>115</v>
@@ -3063,7 +3401,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="18">
         <v>75</v>
@@ -3078,7 +3416,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="18">
         <v>42</v>
@@ -3093,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="18">
         <v>450</v>
@@ -3108,7 +3446,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="18">
         <v>32</v>
@@ -3123,7 +3461,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="18">
         <v>18</v>
@@ -3138,7 +3476,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="18">
         <v>7</v>
@@ -3153,7 +3491,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12" s="18">
         <v>3</v>
@@ -3168,7 +3506,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E13" s="18">
         <v>0.25</v>
@@ -3183,7 +3521,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" s="18">
         <v>2</v>
@@ -3198,7 +3536,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="18">
         <v>20</v>
@@ -3209,7 +3547,7 @@
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F16" s="39">
+      <c r="F16" s="29">
         <f>SUM(F4:F15)</f>
         <v>2107</v>
       </c>
@@ -3219,7 +3557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950C07E0-6136-4D0C-A842-F150475BA4E5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3250,34 +3588,34 @@
     <row r="1" spans="3:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32"/>
+      <c r="C3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="33"/>
     </row>
     <row r="4" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="35"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="36"/>
     </row>
     <row r="5" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
@@ -4019,11 +4357,11 @@
       </c>
     </row>
     <row r="27" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D28" s="9" t="s">
@@ -4094,7 +4432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF86D54-5D3D-411D-8D4D-CF2AE3CCF34E}">
   <dimension ref="B3:O12"/>
   <sheetViews>
@@ -4118,26 +4456,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="E3" s="37" t="s">
+      <c r="C3" s="38"/>
+      <c r="E3" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="H3" s="37" t="s">
+      <c r="F3" s="38"/>
+      <c r="H3" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="K3" s="37" t="s">
+      <c r="I3" s="38"/>
+      <c r="K3" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="N3" s="37" t="s">
+      <c r="L3" s="38"/>
+      <c r="N3" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="37"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -4153,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I5" s="24">
         <v>0</v>

--- a/Documents/FinancePlanner.xlsx
+++ b/Documents/FinancePlanner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2053358A-593C-4252-8776-C959B4ABF225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7774E8-0F04-4357-BABB-287A5000E16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-1095" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MovingTimeline" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="138">
   <si>
     <t>Debt Plan</t>
   </si>
@@ -413,43 +413,46 @@
     <t xml:space="preserve">Red Couch on Facebook </t>
   </si>
   <si>
-    <t>Dump Trip : Game Shelf, Trunk, Cat Cage, Gloomhaven Map, Litter Box 2</t>
-  </si>
-  <si>
-    <t>Side of House : Glass Desk, Patio Table, Patio Chairs, Counter Chairs</t>
-  </si>
-  <si>
-    <t>Microwave to Goodwill / SA</t>
-  </si>
-  <si>
     <t>Tony Get Table ?</t>
   </si>
   <si>
-    <t>Give away Xbox + Rock Band to someone by now. Need clean off personal information</t>
-  </si>
-  <si>
     <t>House goes on Sale! @ $180,000</t>
   </si>
   <si>
-    <t>Duke Hooks up Electric, Have Spectrum up by this date too. Final DC Work date</t>
-  </si>
-  <si>
     <t>Movers Pickup</t>
   </si>
   <si>
-    <t xml:space="preserve">Movers dropoff with Amy at apartment. That bed to curb for pickup. Chris drives over w/ final items. House is empty of belongings by here. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Pickup Keys, Test Spectrum with Router. Bring over car full of items movers wont take. ($2100 due this day). </t>
   </si>
   <si>
-    <t>Move Complete! By this point hopefully house closing signed for. Funds transferred. Services for house end on the 16th (Comcast, FPL, Water, etc.)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chris starts new job, any packing unfinished needs to be finalized before the 12th this week. </t>
   </si>
   <si>
-    <t xml:space="preserve">Joe &amp; Rich clean yard. Remove side house items. Take Blower, Mower, Weed-Eater. Cathy cleans inside somewhere near here. </t>
+    <t>Dump Trip : Gloomhaven Map</t>
+  </si>
+  <si>
+    <t>Side of House : Patio Chair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movers dropoff with Amy at apartment. That bed to curb for pickup plus counter chairs. Chris drives over w/ final items. House is empty of belongings by here. </t>
+  </si>
+  <si>
+    <t>FPL stays until house is finalized / closed for. Other services stopped however.</t>
+  </si>
+  <si>
+    <t>Move Complete! By this point hopefully house closing signed for. Funds transferred. Services for house end on the 16th (ComcastWater, etc.)</t>
+  </si>
+  <si>
+    <t>Duke Hooks up Electric, Have Spectrum up by this date too. Final DC Work date. Party at moms house.</t>
+  </si>
+  <si>
+    <t>Cathy cleans inside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joe &amp; Rich clean yard. Remove side house items. Take Blower, Mower, Weed-Eater. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take black metal chairs to moms. </t>
   </si>
 </sst>
 </file>
@@ -816,7 +819,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -857,6 +860,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="6"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="20" fillId="7" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -887,15 +899,7 @@
     <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="20" fillId="7" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="7" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="60% - Accent1" xfId="3" builtinId="32"/>
@@ -1724,185 +1728,187 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:D31"/>
+  <dimension ref="C1:D30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="1.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="189.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="205.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="41"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="3:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="3:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="30" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="7" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C7" s="43">
+      <c r="C7" s="31">
         <v>44402</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="32" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C8" s="44"/>
-      <c r="D8" s="44" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C9" s="32"/>
+      <c r="D9" s="32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C10" s="32"/>
+      <c r="D10" s="32" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C9" s="44"/>
-      <c r="D9" s="44" t="s">
+    <row r="11" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C11" s="31">
+        <v>44405</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C12" s="31">
+        <v>44406</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C13" s="31">
+        <v>44407</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+    </row>
+    <row r="15" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C15" s="31">
+        <v>44409</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C10" s="44"/>
-      <c r="D10" s="44" t="s">
+    <row r="16" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+    </row>
+    <row r="17" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C17" s="31">
+        <v>44414</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+    </row>
+    <row r="19" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C19" s="31">
+        <v>44416</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+    </row>
+    <row r="21" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C21" s="31">
+        <v>44417</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+    </row>
+    <row r="23" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C23" s="31">
+        <v>44420</v>
+      </c>
+      <c r="D23" s="32" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C11" s="44"/>
-      <c r="D11" s="44" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-    </row>
-    <row r="13" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C13" s="43">
-        <v>44408</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C14" s="44"/>
-      <c r="D14" s="44" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-    </row>
-    <row r="16" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C16" s="43">
-        <v>44409</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
-    </row>
-    <row r="18" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C18" s="43">
-        <v>44414</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-    </row>
-    <row r="20" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C20" s="43">
-        <v>44416</v>
-      </c>
-      <c r="D20" s="44" t="s">
+    <row r="24" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+    </row>
+    <row r="25" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C25" s="31">
+        <v>44421</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+    </row>
+    <row r="27" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C27" s="31">
+        <v>44422</v>
+      </c>
+      <c r="D27" s="32" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
-    </row>
-    <row r="22" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C22" s="43">
-        <v>44417</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-    </row>
-    <row r="24" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C24" s="43">
-        <v>44420</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-    </row>
-    <row r="26" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C26" s="43">
-        <v>44421</v>
-      </c>
-      <c r="D26" s="44" t="s">
+    <row r="28" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+    </row>
+    <row r="29" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C29" s="32"/>
+      <c r="D29" s="32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-    </row>
-    <row r="28" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C28" s="43">
-        <v>44422</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-    </row>
     <row r="30" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-    </row>
-    <row r="31" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1917,7 +1923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85A47CF-6AC8-4C4D-A41E-CA1810B484A4}">
   <dimension ref="C1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
@@ -1932,10 +1938,10 @@
   <sheetData>
     <row r="1" spans="3:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="30"/>
+      <c r="D2" s="35"/>
       <c r="H2" s="27" t="s">
         <v>53</v>
       </c>
@@ -2251,34 +2257,34 @@
     <row r="1" spans="3:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="33"/>
+      <c r="C3" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="38"/>
     </row>
     <row r="4" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="36"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="41"/>
     </row>
     <row r="5" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
@@ -3066,11 +3072,11 @@
       </c>
     </row>
     <row r="27" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
     </row>
     <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D28" s="9" t="s">
@@ -3170,26 +3176,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="E3" s="38" t="s">
+      <c r="C3" s="43"/>
+      <c r="E3" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="H3" s="38" t="s">
+      <c r="F3" s="43"/>
+      <c r="H3" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="K3" s="38" t="s">
+      <c r="I3" s="43"/>
+      <c r="K3" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="N3" s="38" t="s">
+      <c r="L3" s="43"/>
+      <c r="N3" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="38"/>
+      <c r="O3" s="43"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -3308,18 +3314,18 @@
       </c>
     </row>
     <row r="14" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="Q14" s="38" t="s">
+      <c r="Q14" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
     </row>
     <row r="15" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="Q15" s="39">
+      <c r="Q15" s="44">
         <v>120000</v>
       </c>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3588,34 +3594,34 @@
     <row r="1" spans="3:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="33"/>
+      <c r="C3" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="38"/>
     </row>
     <row r="4" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="36"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="41"/>
     </row>
     <row r="5" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
@@ -4357,11 +4363,11 @@
       </c>
     </row>
     <row r="27" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
     </row>
     <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D28" s="9" t="s">
@@ -4456,26 +4462,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="E3" s="38" t="s">
+      <c r="C3" s="43"/>
+      <c r="E3" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="H3" s="38" t="s">
+      <c r="F3" s="43"/>
+      <c r="H3" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="K3" s="38" t="s">
+      <c r="I3" s="43"/>
+      <c r="K3" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="N3" s="38" t="s">
+      <c r="L3" s="43"/>
+      <c r="N3" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="38"/>
+      <c r="O3" s="43"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">

--- a/Documents/FinancePlanner.xlsx
+++ b/Documents/FinancePlanner.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7774E8-0F04-4357-BABB-287A5000E16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2134DC-B3B3-4F8D-9837-ED421E998DCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MovingTimeline" sheetId="8" r:id="rId1"/>
-    <sheet name="HouseSaleFunds" sheetId="6" r:id="rId2"/>
+    <sheet name="HouseSaleDetails" sheetId="6" r:id="rId2"/>
     <sheet name="ChrisDebtSheet" sheetId="2" r:id="rId3"/>
     <sheet name="ChrisFinances" sheetId="4" r:id="rId4"/>
     <sheet name="CardsToBuy" sheetId="7" r:id="rId5"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="132">
   <si>
     <t>Debt Plan</t>
   </si>
@@ -218,12 +218,6 @@
     <t>Office Roller Cabinet</t>
   </si>
   <si>
-    <t>Wire Art Desk + Shelf (Most Art Supplies?)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Items Moving to Apartment : </t>
-  </si>
-  <si>
     <t>Primary Computer Desk</t>
   </si>
   <si>
@@ -239,27 +233,12 @@
     <t>Primary Bed</t>
   </si>
   <si>
-    <t>Gaming Table</t>
-  </si>
-  <si>
     <t xml:space="preserve">Blower </t>
   </si>
   <si>
     <t xml:space="preserve">Weed Eater </t>
   </si>
   <si>
-    <t>Counter Seats</t>
-  </si>
-  <si>
-    <t>Glass Patio Table</t>
-  </si>
-  <si>
-    <t>Porch Chairs</t>
-  </si>
-  <si>
-    <t>Porch Table</t>
-  </si>
-  <si>
     <t>Guest Room Night Stands</t>
   </si>
   <si>
@@ -272,9 +251,6 @@
     <t>TV Stand (w TV and Switch)</t>
   </si>
   <si>
-    <t>Xbox + Rock Band Stuff</t>
-  </si>
-  <si>
     <t>Black Bookcase</t>
   </si>
   <si>
@@ -368,18 +344,9 @@
     <t xml:space="preserve">Lawn Mower </t>
   </si>
   <si>
-    <t xml:space="preserve">Office Glass Table </t>
-  </si>
-  <si>
     <t xml:space="preserve">Give Away / Trash Items : </t>
   </si>
   <si>
-    <t xml:space="preserve">Board Game Shelving </t>
-  </si>
-  <si>
-    <t>Red Couch (FB Market, Give Away)</t>
-  </si>
-  <si>
     <t>Board Game Collection</t>
   </si>
   <si>
@@ -395,12 +362,6 @@
     <t>iPad &amp; iMac Combo</t>
   </si>
   <si>
-    <t>Guest Bed (Curb Pickup Final Day)</t>
-  </si>
-  <si>
-    <t>Microwave</t>
-  </si>
-  <si>
     <t>Moving Timeline</t>
   </si>
   <si>
@@ -410,15 +371,6 @@
     <t>Activity</t>
   </si>
   <si>
-    <t xml:space="preserve">Red Couch on Facebook </t>
-  </si>
-  <si>
-    <t>Tony Get Table ?</t>
-  </si>
-  <si>
-    <t>House goes on Sale! @ $180,000</t>
-  </si>
-  <si>
     <t>Movers Pickup</t>
   </si>
   <si>
@@ -428,12 +380,6 @@
     <t xml:space="preserve">Chris starts new job, any packing unfinished needs to be finalized before the 12th this week. </t>
   </si>
   <si>
-    <t>Dump Trip : Gloomhaven Map</t>
-  </si>
-  <si>
-    <t>Side of House : Patio Chair</t>
-  </si>
-  <si>
     <t xml:space="preserve">Movers dropoff with Amy at apartment. That bed to curb for pickup plus counter chairs. Chris drives over w/ final items. House is empty of belongings by here. </t>
   </si>
   <si>
@@ -446,13 +392,49 @@
     <t>Duke Hooks up Electric, Have Spectrum up by this date too. Final DC Work date. Party at moms house.</t>
   </si>
   <si>
-    <t>Cathy cleans inside</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joe &amp; Rich clean yard. Remove side house items. Take Blower, Mower, Weed-Eater. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Take black metal chairs to moms. </t>
+    <t>Joe &amp; Rich clean yard. Remove side house items. Take Blower, Mower, Weed-Eater. Take Red Couch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House goes on Sale! @ $180,000 , Call &amp; Start Spectrum </t>
+  </si>
+  <si>
+    <t>Office Furniture &amp; Equipment</t>
+  </si>
+  <si>
+    <t>Guest Bed &amp; Counter Seats (Curb Pickup Final Day)</t>
+  </si>
+  <si>
+    <t>Red Couch (Rich &amp; Joe take these 4 items away)</t>
+  </si>
+  <si>
+    <t>Porch Chair &amp; Gloomhaven Map (Take to Dump Thursday)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Furniture Moving to Apartment : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wire Art Desk + Shelf </t>
+  </si>
+  <si>
+    <t>Mini-Fridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guest Room TV </t>
+  </si>
+  <si>
+    <t>Gaming Table (Tony Pickup)</t>
+  </si>
+  <si>
+    <t>Projector / Screen , Black Chairs (Take to mom Wedensday)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cathy cleans inside, Dump Trip w/ Map &amp; Final Chair </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tony Get Table </t>
+  </si>
+  <si>
+    <t>Take black metal chairs &amp; projector screen to moms. Finish initial inside clean up ahead of Cathy.</t>
   </si>
 </sst>
 </file>
@@ -863,6 +845,7 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="20" fillId="7" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="7" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -899,7 +882,6 @@
     <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="7" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="60% - Accent1" xfId="3" builtinId="32"/>
@@ -1730,8 +1712,8 @@
   </sheetPr>
   <dimension ref="C1:D30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,72 +1726,66 @@
     <row r="1" spans="3:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="33"/>
+      <c r="C3" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="3:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
     </row>
     <row r="5" spans="3:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="3:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C6" s="30" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="3:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C7" s="31">
-        <v>44402</v>
+        <v>44404</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="3:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C8" s="32"/>
-      <c r="D8" s="32" t="s">
-        <v>129</v>
-      </c>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C9" s="32"/>
-      <c r="D9" s="32" t="s">
-        <v>130</v>
+      <c r="C9" s="31">
+        <v>44405</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C10" s="32"/>
-      <c r="D10" s="32" t="s">
-        <v>124</v>
-      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="3:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C11" s="31">
-        <v>44405</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>137</v>
+        <v>44406</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C12" s="31">
-        <v>44406</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>135</v>
-      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
     </row>
     <row r="13" spans="3:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C13" s="31">
         <v>44407</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="3:4" ht="21" x14ac:dyDescent="0.35">
@@ -1821,7 +1797,7 @@
         <v>44409</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="3:4" ht="21" x14ac:dyDescent="0.35">
@@ -1833,7 +1809,7 @@
         <v>44414</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="21" x14ac:dyDescent="0.35">
@@ -1845,7 +1821,7 @@
         <v>44416</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="21" x14ac:dyDescent="0.35">
@@ -1857,7 +1833,7 @@
         <v>44417</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="21" x14ac:dyDescent="0.35">
@@ -1869,7 +1845,7 @@
         <v>44420</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="3:4" ht="21" x14ac:dyDescent="0.35">
@@ -1881,7 +1857,7 @@
         <v>44421</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="3:4" ht="21" x14ac:dyDescent="0.35">
@@ -1893,7 +1869,7 @@
         <v>44422</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="3:4" ht="21" x14ac:dyDescent="0.35">
@@ -1903,7 +1879,7 @@
     <row r="29" spans="3:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C29" s="32"/>
       <c r="D29" s="32" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="3:4" ht="21" x14ac:dyDescent="0.35">
@@ -1921,10 +1897,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85A47CF-6AC8-4C4D-A41E-CA1810B484A4}">
-  <dimension ref="C1:I43"/>
+  <dimension ref="C1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1933,15 +1909,15 @@
     <col min="3" max="3" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="1.42578125" customWidth="1"/>
-    <col min="8" max="8" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="35"/>
+      <c r="D2" s="36"/>
       <c r="H2" s="27" t="s">
         <v>53</v>
       </c>
@@ -1988,16 +1964,19 @@
       <c r="D6" s="26">
         <v>15000</v>
       </c>
+      <c r="H6" s="27" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="7" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="27" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D7" s="26">
         <v>2100</v>
       </c>
-      <c r="H7" s="27" t="s">
-        <v>60</v>
+      <c r="H7" s="28" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2007,6 +1986,9 @@
       <c r="D8" s="26">
         <v>15000</v>
       </c>
+      <c r="H8" s="28" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="27" t="s">
@@ -2016,7 +1998,7 @@
         <v>5000</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2027,7 +2009,7 @@
         <v>2900</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2036,17 +2018,17 @@
         <v>180000</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="H12" s="28" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
       <c r="H13" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -2058,163 +2040,138 @@
         <v>0</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H15" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="26">
+        <v>27000</v>
+      </c>
       <c r="H16" s="28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="26">
+        <v>3000</v>
+      </c>
       <c r="H17" s="28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="27" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D18" s="26">
-        <v>30000</v>
+        <v>4000</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="27" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D19" s="26">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="27" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D20" s="26">
-        <v>5000</v>
+        <f>SUM(D16-(D17+D18+D19))</f>
+        <v>15000</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="26">
-        <f>SUM(D18-D19-D20)</f>
-        <v>22000</v>
-      </c>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H21" s="28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H22" s="28" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H23" s="28" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H24" s="28" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H25" s="28" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H27" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H29" s="28" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H30" s="28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="H31" s="28" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H32" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H33" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H34" s="28" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H35" s="28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H36" s="28" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H37" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H38" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H39" s="28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H40" s="28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H42" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H43" s="28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2257,34 +2214,34 @@
     <row r="1" spans="3:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="38"/>
+      <c r="C3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="39"/>
     </row>
     <row r="4" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="41"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="42"/>
     </row>
     <row r="5" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
@@ -2353,7 +2310,7 @@
         <v>5000</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="M6" s="4">
         <f>D6+H6-I6-J6-K6</f>
@@ -2394,7 +2351,7 @@
         <v>15000</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="M7" s="19">
         <f>D7+H7-I7-J7-K7+M6</f>
@@ -2861,7 +2818,7 @@
     </row>
     <row r="20" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D20" s="18">
         <v>300</v>
@@ -3072,11 +3029,11 @@
       </c>
     </row>
     <row r="27" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
     </row>
     <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D28" s="9" t="s">
@@ -3112,7 +3069,7 @@
         <v>15000</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
@@ -3176,26 +3133,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="E3" s="43" t="s">
+      <c r="C3" s="44"/>
+      <c r="E3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="H3" s="43" t="s">
+      <c r="F3" s="44"/>
+      <c r="H3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="K3" s="43" t="s">
+      <c r="I3" s="44"/>
+      <c r="K3" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="N3" s="43" t="s">
+      <c r="L3" s="44"/>
+      <c r="N3" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="43"/>
+      <c r="O3" s="44"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -3233,7 +3190,7 @@
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C6" s="22"/>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L6" s="22">
         <v>200</v>
@@ -3248,7 +3205,7 @@
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L7" s="22">
         <v>90</v>
@@ -3301,7 +3258,7 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="L11" s="22">
         <v>500</v>
@@ -3314,18 +3271,18 @@
       </c>
     </row>
     <row r="14" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="Q14" s="43" t="s">
+      <c r="Q14" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
     </row>
     <row r="15" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="Q15" s="44">
+      <c r="Q15" s="45">
         <v>120000</v>
       </c>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3347,7 +3304,7 @@
   <dimension ref="C3:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3360,16 +3317,16 @@
   <sheetData>
     <row r="3" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C3" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3377,7 +3334,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E4" s="18">
         <v>100</v>
@@ -3392,7 +3349,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E5" s="18">
         <v>115</v>
@@ -3407,7 +3364,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E6" s="18">
         <v>75</v>
@@ -3422,7 +3379,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E7" s="18">
         <v>42</v>
@@ -3437,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E8" s="18">
         <v>450</v>
@@ -3452,7 +3409,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E9" s="18">
         <v>32</v>
@@ -3467,7 +3424,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E10" s="18">
         <v>18</v>
@@ -3482,7 +3439,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E11" s="18">
         <v>7</v>
@@ -3497,7 +3454,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E12" s="18">
         <v>3</v>
@@ -3512,7 +3469,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E13" s="18">
         <v>0.25</v>
@@ -3527,7 +3484,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E14" s="18">
         <v>2</v>
@@ -3542,7 +3499,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E15" s="18">
         <v>20</v>
@@ -3594,34 +3551,34 @@
     <row r="1" spans="3:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="38"/>
+      <c r="C3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="39"/>
     </row>
     <row r="4" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="41"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="42"/>
     </row>
     <row r="5" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
@@ -4363,11 +4320,11 @@
       </c>
     </row>
     <row r="27" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
     </row>
     <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D28" s="9" t="s">
@@ -4443,7 +4400,7 @@
   <dimension ref="B3:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4462,26 +4419,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="E3" s="43" t="s">
+      <c r="C3" s="44"/>
+      <c r="E3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="H3" s="43" t="s">
+      <c r="F3" s="44"/>
+      <c r="H3" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="K3" s="43" t="s">
+      <c r="I3" s="44"/>
+      <c r="K3" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="N3" s="43" t="s">
+      <c r="L3" s="44"/>
+      <c r="N3" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="43"/>
+      <c r="O3" s="44"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -4497,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I5" s="24">
         <v>0</v>

--- a/Documents/FinancePlanner.xlsx
+++ b/Documents/FinancePlanner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Codebase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2134DC-B3B3-4F8D-9837-ED421E998DCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26111557-04FD-4F3B-BB32-84A6E4BE451F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MovingTimeline" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="131">
   <si>
     <t>Debt Plan</t>
   </si>
@@ -432,9 +432,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tony Get Table </t>
-  </si>
-  <si>
-    <t>Take black metal chairs &amp; projector screen to moms. Finish initial inside clean up ahead of Cathy.</t>
   </si>
 </sst>
 </file>
@@ -801,7 +798,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -845,7 +842,6 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="20" fillId="7" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="7" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1710,10 +1706,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:D30"/>
+  <dimension ref="C1:D28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1726,14 +1722,14 @@
     <row r="1" spans="3:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="3:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="3:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="3:4" ht="21" x14ac:dyDescent="0.35">
@@ -1758,22 +1754,22 @@
     </row>
     <row r="9" spans="3:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C9" s="31">
-        <v>44405</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>131</v>
+        <v>44406</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="3:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C10" s="31"/>
-      <c r="D10" s="33"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" spans="3:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C11" s="31">
-        <v>44406</v>
+        <v>44407</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="3:4" ht="21" x14ac:dyDescent="0.35">
@@ -1782,10 +1778,10 @@
     </row>
     <row r="13" spans="3:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C13" s="31">
-        <v>44407</v>
+        <v>44409</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="3:4" ht="21" x14ac:dyDescent="0.35">
@@ -1794,10 +1790,10 @@
     </row>
     <row r="15" spans="3:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C15" s="31">
-        <v>44409</v>
+        <v>44414</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="3:4" ht="21" x14ac:dyDescent="0.35">
@@ -1806,10 +1802,10 @@
     </row>
     <row r="17" spans="3:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C17" s="31">
-        <v>44414</v>
+        <v>44416</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="21" x14ac:dyDescent="0.35">
@@ -1818,22 +1814,22 @@
     </row>
     <row r="19" spans="3:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C19" s="31">
-        <v>44416</v>
+        <v>44417</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C20" s="31"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="32"/>
     </row>
     <row r="21" spans="3:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C21" s="31">
-        <v>44417</v>
+        <v>44420</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="21" x14ac:dyDescent="0.35">
@@ -1842,10 +1838,10 @@
     </row>
     <row r="23" spans="3:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C23" s="31">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="3:4" ht="21" x14ac:dyDescent="0.35">
@@ -1854,10 +1850,10 @@
     </row>
     <row r="25" spans="3:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C25" s="31">
-        <v>44421</v>
+        <v>44422</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="3:4" ht="21" x14ac:dyDescent="0.35">
@@ -1865,26 +1861,14 @@
       <c r="D26" s="32"/>
     </row>
     <row r="27" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C27" s="31">
-        <v>44422</v>
-      </c>
+      <c r="C27" s="32"/>
       <c r="D27" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="3:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C28" s="32"/>
       <c r="D28" s="32"/>
-    </row>
-    <row r="29" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C29" s="32"/>
-      <c r="D29" s="32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1899,7 +1883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85A47CF-6AC8-4C4D-A41E-CA1810B484A4}">
   <dimension ref="C1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -1914,10 +1898,10 @@
   <sheetData>
     <row r="1" spans="3:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="36"/>
+      <c r="D2" s="35"/>
       <c r="H2" s="27" t="s">
         <v>53</v>
       </c>
@@ -2214,34 +2198,34 @@
     <row r="1" spans="3:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
+      <c r="C3" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="38"/>
     </row>
     <row r="4" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="41"/>
     </row>
     <row r="5" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
@@ -3029,11 +3013,11 @@
       </c>
     </row>
     <row r="27" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
     </row>
     <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D28" s="9" t="s">
@@ -3133,26 +3117,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="E3" s="44" t="s">
+      <c r="C3" s="43"/>
+      <c r="E3" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="H3" s="44" t="s">
+      <c r="F3" s="43"/>
+      <c r="H3" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="K3" s="44" t="s">
+      <c r="I3" s="43"/>
+      <c r="K3" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="44"/>
-      <c r="N3" s="44" t="s">
+      <c r="L3" s="43"/>
+      <c r="N3" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="44"/>
+      <c r="O3" s="43"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -3271,18 +3255,18 @@
       </c>
     </row>
     <row r="14" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="Q14" s="44" t="s">
+      <c r="Q14" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
     </row>
     <row r="15" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="Q15" s="45">
+      <c r="Q15" s="44">
         <v>120000</v>
       </c>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3551,34 +3535,34 @@
     <row r="1" spans="3:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
+      <c r="C3" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="38"/>
     </row>
     <row r="4" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="41"/>
     </row>
     <row r="5" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
@@ -4320,11 +4304,11 @@
       </c>
     </row>
     <row r="27" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
     </row>
     <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D28" s="9" t="s">
@@ -4419,26 +4403,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="E3" s="44" t="s">
+      <c r="C3" s="43"/>
+      <c r="E3" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="H3" s="44" t="s">
+      <c r="F3" s="43"/>
+      <c r="H3" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="K3" s="44" t="s">
+      <c r="I3" s="43"/>
+      <c r="K3" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="44"/>
-      <c r="N3" s="44" t="s">
+      <c r="L3" s="43"/>
+      <c r="N3" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="44"/>
+      <c r="O3" s="43"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">

--- a/Documents/FinancePlanner.xlsx
+++ b/Documents/FinancePlanner.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Codebase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26111557-04FD-4F3B-BB32-84A6E4BE451F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B7232F-2001-44E3-B0CA-E4B74E83EB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MovingTimeline" sheetId="8" r:id="rId1"/>
-    <sheet name="HouseSaleDetails" sheetId="6" r:id="rId2"/>
-    <sheet name="ChrisDebtSheet" sheetId="2" r:id="rId3"/>
-    <sheet name="ChrisFinances" sheetId="4" r:id="rId4"/>
-    <sheet name="CardsToBuy" sheetId="7" r:id="rId5"/>
-    <sheet name="AmyDebtSheet" sheetId="3" r:id="rId6"/>
-    <sheet name="AmyFinances" sheetId="5" r:id="rId7"/>
+    <sheet name="HouseSaleDetails" sheetId="6" r:id="rId1"/>
+    <sheet name="ChrisDebtSheet" sheetId="2" r:id="rId2"/>
+    <sheet name="ChrisFinances" sheetId="4" r:id="rId3"/>
+    <sheet name="AmyDebtSheet" sheetId="3" r:id="rId4"/>
+    <sheet name="AmyFinances" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
   <si>
     <t>Debt Plan</t>
   </si>
@@ -95,12 +93,6 @@
     <t>EstDate</t>
   </si>
   <si>
-    <t>3rd Paycheck</t>
-  </si>
-  <si>
-    <t>Debt Forgiveness</t>
-  </si>
-  <si>
     <t>Other Debt</t>
   </si>
   <si>
@@ -125,15 +117,9 @@
     <t>CVS</t>
   </si>
   <si>
-    <t>Mortgage</t>
-  </si>
-  <si>
     <t>Phone</t>
   </si>
   <si>
-    <t>Car Insurance</t>
-  </si>
-  <si>
     <t>Income</t>
   </si>
   <si>
@@ -185,9 +171,6 @@
     <t>Expense 7</t>
   </si>
   <si>
-    <t xml:space="preserve">Mortgage Loan Balance </t>
-  </si>
-  <si>
     <t>Hopeful House Sale Price</t>
   </si>
   <si>
@@ -197,81 +180,6 @@
     <t>Mortgage Payoff</t>
   </si>
   <si>
-    <t>Closing Costs &amp; Taxes</t>
-  </si>
-  <si>
-    <t>Down Payment Savings</t>
-  </si>
-  <si>
-    <t>Honeymoon Funds Savings</t>
-  </si>
-  <si>
-    <t>Credit Card Payoff</t>
-  </si>
-  <si>
-    <t>Estimated Remainder to Spend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moving Cost Estimate : </t>
-  </si>
-  <si>
-    <t>Office Roller Cabinet</t>
-  </si>
-  <si>
-    <t>Primary Computer Desk</t>
-  </si>
-  <si>
-    <t>Network Cabinet Box</t>
-  </si>
-  <si>
-    <t>Kitchen Table</t>
-  </si>
-  <si>
-    <t>2 Couches</t>
-  </si>
-  <si>
-    <t>Primary Bed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blower </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weed Eater </t>
-  </si>
-  <si>
-    <t>Guest Room Night Stands</t>
-  </si>
-  <si>
-    <t>Draft Table</t>
-  </si>
-  <si>
-    <t>3 Dressers (1 Long, 2 Tall)</t>
-  </si>
-  <si>
-    <t>TV Stand (w TV and Switch)</t>
-  </si>
-  <si>
-    <t>Black Bookcase</t>
-  </si>
-  <si>
-    <t>Corner Glass Table</t>
-  </si>
-  <si>
-    <t>Primary Bed Stands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secondary Computer Desk </t>
-  </si>
-  <si>
-    <t>Amy Bookshelf</t>
-  </si>
-  <si>
-    <t>Wedding Savings</t>
-  </si>
-  <si>
-    <t>Moving Costs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wedding Fund </t>
   </si>
   <si>
@@ -290,148 +198,46 @@
     <t>02/31/2022</t>
   </si>
   <si>
-    <t>Magic Cards</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Pricer Per</t>
-  </si>
-  <si>
-    <t>Price Total</t>
-  </si>
-  <si>
-    <t>Force of Negation</t>
-  </si>
-  <si>
-    <t>Force of Will</t>
-  </si>
-  <si>
-    <t>Snapcaster Mage</t>
-  </si>
-  <si>
-    <t>Misty Rainforest</t>
-  </si>
-  <si>
-    <t>Tundra</t>
-  </si>
-  <si>
-    <t>Cryptic Command</t>
-  </si>
-  <si>
-    <t>Prismatic Ending</t>
-  </si>
-  <si>
-    <t>Supreme Verdict</t>
-  </si>
-  <si>
-    <t>Archmage's Charm</t>
-  </si>
-  <si>
-    <t>Blossoming Calm</t>
-  </si>
-  <si>
-    <t>Sanctifier en-Vec</t>
-  </si>
-  <si>
-    <t>Thoughtsieze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lawn Mower </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Give Away / Trash Items : </t>
-  </si>
-  <si>
-    <t>Board Game Collection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Possible Extra Sale Cash </t>
-  </si>
-  <si>
-    <t>Amy CC Debt</t>
-  </si>
-  <si>
-    <t>Remainder for Teeth</t>
-  </si>
-  <si>
-    <t>iPad &amp; iMac Combo</t>
-  </si>
-  <si>
-    <t>Moving Timeline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day </t>
-  </si>
-  <si>
-    <t>Activity</t>
-  </si>
-  <si>
-    <t>Movers Pickup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pickup Keys, Test Spectrum with Router. Bring over car full of items movers wont take. ($2100 due this day). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chris starts new job, any packing unfinished needs to be finalized before the 12th this week. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movers dropoff with Amy at apartment. That bed to curb for pickup plus counter chairs. Chris drives over w/ final items. House is empty of belongings by here. </t>
-  </si>
-  <si>
-    <t>FPL stays until house is finalized / closed for. Other services stopped however.</t>
-  </si>
-  <si>
-    <t>Move Complete! By this point hopefully house closing signed for. Funds transferred. Services for house end on the 16th (ComcastWater, etc.)</t>
-  </si>
-  <si>
-    <t>Duke Hooks up Electric, Have Spectrum up by this date too. Final DC Work date. Party at moms house.</t>
-  </si>
-  <si>
-    <t>Joe &amp; Rich clean yard. Remove side house items. Take Blower, Mower, Weed-Eater. Take Red Couch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">House goes on Sale! @ $180,000 , Call &amp; Start Spectrum </t>
-  </si>
-  <si>
-    <t>Office Furniture &amp; Equipment</t>
-  </si>
-  <si>
     <t>Guest Bed &amp; Counter Seats (Curb Pickup Final Day)</t>
   </si>
   <si>
-    <t>Red Couch (Rich &amp; Joe take these 4 items away)</t>
-  </si>
-  <si>
-    <t>Porch Chair &amp; Gloomhaven Map (Take to Dump Thursday)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Furniture Moving to Apartment : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wire Art Desk + Shelf </t>
-  </si>
-  <si>
-    <t>Mini-Fridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guest Room TV </t>
-  </si>
-  <si>
-    <t>Gaming Table (Tony Pickup)</t>
-  </si>
-  <si>
-    <t>Projector / Screen , Black Chairs (Take to mom Wedensday)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cathy cleans inside, Dump Trip w/ Map &amp; Final Chair </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tony Get Table </t>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Closing Costs</t>
+  </si>
+  <si>
+    <t>Net Proceeds</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mac/Ipad Combo </t>
+  </si>
+  <si>
+    <t>Wedding Funds</t>
+  </si>
+  <si>
+    <t>Remainder Savings</t>
+  </si>
+  <si>
+    <t>Wedding + Honeymoon Fund</t>
+  </si>
+  <si>
+    <t>Mac Combo</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Progressive</t>
+  </si>
+  <si>
+    <t>Home Sale</t>
+  </si>
+  <si>
+    <t>Yearly Bonus</t>
   </si>
 </sst>
 </file>
@@ -443,7 +249,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,32 +385,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,13 +423,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -772,23 +549,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -796,9 +558,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -838,16 +599,6 @@
     <xf numFmtId="6" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="6"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="20" fillId="7" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -875,18 +626,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="60% - Accent1" xfId="3" builtinId="32"/>
     <cellStyle name="60% - Accent3" xfId="4" builtinId="40"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="6" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="7" builtinId="10"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
   <dxfs count="20">
@@ -1702,189 +1449,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E305D1-59ED-4982-95A6-940373E4426C}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="C1:D28"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="1.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="205.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="3:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="33"/>
-    </row>
-    <row r="4" spans="3:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-    </row>
-    <row r="5" spans="3:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C6" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C7" s="31">
-        <v>44404</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-    </row>
-    <row r="9" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C9" s="31">
-        <v>44406</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-    </row>
-    <row r="11" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C11" s="31">
-        <v>44407</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-    </row>
-    <row r="13" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C13" s="31">
-        <v>44409</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-    </row>
-    <row r="15" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C15" s="31">
-        <v>44414</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-    </row>
-    <row r="17" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C17" s="31">
-        <v>44416</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-    </row>
-    <row r="19" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C19" s="31">
-        <v>44417</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-    </row>
-    <row r="21" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C21" s="31">
-        <v>44420</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-    </row>
-    <row r="23" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C23" s="31">
-        <v>44421</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-    </row>
-    <row r="25" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C25" s="31">
-        <v>44422</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-    </row>
-    <row r="27" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C27" s="32"/>
-      <c r="D27" s="32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C3:D4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="44" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85A47CF-6AC8-4C4D-A41E-CA1810B484A4}">
-  <dimension ref="C1:I37"/>
+  <dimension ref="C1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1896,266 +1465,178 @@
     <col min="8" max="8" width="53.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="3:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="H2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="26">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="3" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="3:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D3" s="26">
-        <v>180000</v>
-      </c>
-      <c r="H3" s="27" t="s">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="26">
+        <v>128000</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="26">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="26">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="4" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="26">
-        <v>120000</v>
-      </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="26"/>
-    </row>
-    <row r="5" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="26">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="27" t="s">
-        <v>53</v>
-      </c>
       <c r="D6" s="26">
-        <v>15000</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="27" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="D7" s="26">
-        <v>2100</v>
-      </c>
-      <c r="H7" s="28" t="s">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="25">
+        <f>SUM(D4:D7)</f>
+        <v>151250</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="28"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="26">
+        <f>D3-(D4+D5+D6+D7)</f>
+        <v>23750</v>
+      </c>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="28"/>
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="28"/>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="14" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="26">
+        <v>5000</v>
+      </c>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="3:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="26">
+        <v>3000</v>
+      </c>
+      <c r="H15" s="28"/>
+    </row>
+    <row r="16" spans="3:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="27" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="26">
-        <v>15000</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="26">
-        <v>5000</v>
-      </c>
-      <c r="H9" s="28" t="s">
+      <c r="D16" s="26">
+        <v>10000</v>
+      </c>
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" spans="3:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="26">
+        <f>SUM(D14:D16)</f>
+        <v>18000</v>
+      </c>
+      <c r="H17" s="28"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="28"/>
+      <c r="H18" s="28"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D19" s="28"/>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="28"/>
+      <c r="H20" s="28"/>
+    </row>
+    <row r="21" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="27" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="3:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="25">
-        <v>2900</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="25">
-        <f>SUM(D4:D10)</f>
-        <v>180000</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="H12" s="28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="H13" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="25">
-        <f>D3-D11</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H15" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="26">
-        <v>27000</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="26">
-        <v>3000</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="26">
-        <v>4000</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="26">
-        <v>5000</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="26">
-        <f>SUM(D16-(D17+D18+D19))</f>
-        <v>15000</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H21" s="28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="H22" s="28" t="s">
-        <v>74</v>
-      </c>
+      <c r="D21" s="26">
+        <f>D11-D17</f>
+        <v>5750</v>
+      </c>
+      <c r="H21" s="28"/>
+    </row>
+    <row r="22" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="28"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="H23" s="28" t="s">
-        <v>69</v>
-      </c>
+      <c r="H23" s="28"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="H24" s="28" t="s">
-        <v>67</v>
-      </c>
+      <c r="H24" s="28"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="H25" s="28" t="s">
-        <v>102</v>
-      </c>
+      <c r="H25" s="28"/>
     </row>
     <row r="27" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H27" s="27" t="s">
-        <v>101</v>
-      </c>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H28" s="28" t="s">
-        <v>127</v>
-      </c>
+      <c r="H28" s="28"/>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="H29" s="28" t="s">
-        <v>128</v>
-      </c>
+      <c r="H29" s="28"/>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="H30" s="28" t="s">
-        <v>122</v>
-      </c>
+      <c r="H30" s="28"/>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="H32" s="28" t="s">
-        <v>64</v>
-      </c>
+      <c r="H32" s="28"/>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H33" s="28" t="s">
-        <v>65</v>
-      </c>
+      <c r="H33" s="28"/>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H34" s="28" t="s">
-        <v>100</v>
-      </c>
+      <c r="H34" s="28"/>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H35" s="28" t="s">
-        <v>121</v>
-      </c>
+      <c r="H35" s="28"/>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H37" s="28" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2167,15 +1648,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="C1:N36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,7 +1671,7 @@
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2198,34 +1679,34 @@
     <row r="1" spans="3:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="38"/>
+      <c r="C3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
     </row>
     <row r="4" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="41"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="35"/>
     </row>
     <row r="5" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
@@ -2267,16 +1748,16 @@
     </row>
     <row r="6" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
-        <v>44407</v>
+        <v>44454</v>
       </c>
       <c r="D6" s="18">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="7">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="G6" s="7">
         <v>3500</v>
@@ -2291,14 +1772,12 @@
         <v>0</v>
       </c>
       <c r="K6" s="8">
-        <v>5000</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L6" s="2"/>
       <c r="M6" s="4">
         <f>D6+H6-I6-J6-K6</f>
-        <v>-3700</v>
+        <v>0</v>
       </c>
       <c r="N6" s="3">
         <v>0</v>
@@ -2306,17 +1785,17 @@
     </row>
     <row r="7" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
-        <v>44423</v>
+        <v>44469</v>
       </c>
       <c r="D7" s="18">
-        <v>40600</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="7">
         <f>F6-I7</f>
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" ref="G7:G19" si="0">G6-J7</f>
@@ -2326,39 +1805,37 @@
         <v>0</v>
       </c>
       <c r="I7" s="8">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="8">
         <v>0</v>
       </c>
       <c r="K7" s="8">
-        <v>15000</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L7" s="2"/>
       <c r="M7" s="19">
         <f>D7+H7-I7-J7-K7+M6</f>
-        <v>16900</v>
+        <v>0</v>
       </c>
       <c r="N7" s="20">
         <f>M7-F7-G7</f>
-        <v>13400</v>
+        <v>-14500</v>
       </c>
     </row>
     <row r="8" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
-        <v>44439</v>
+        <v>44484</v>
       </c>
       <c r="D8" s="18">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" ref="F8:F19" si="1">F7-I8</f>
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="0"/>
@@ -2379,22 +1856,22 @@
       <c r="L8" s="2"/>
       <c r="M8" s="19">
         <f>D8+H8-I8-J8-K8+M7</f>
-        <v>17200</v>
+        <v>0</v>
       </c>
       <c r="N8" s="20">
         <f t="shared" ref="N8:N19" si="2">M8-F8-G8</f>
-        <v>13700</v>
+        <v>-14500</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
-        <v>44454</v>
+        <v>44500</v>
       </c>
       <c r="D9" s="18">
-        <v>300</v>
+        <v>35000</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="1"/>
@@ -2408,30 +1885,32 @@
         <v>0</v>
       </c>
       <c r="I9" s="8">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="J9" s="8">
         <v>0</v>
       </c>
       <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2"/>
+        <v>15000</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="M9" s="19">
         <f t="shared" ref="M9:M19" si="3">D9+H9-I9-J9-K9+M8</f>
-        <v>17500</v>
+        <v>9000</v>
       </c>
       <c r="N9" s="20">
         <f t="shared" si="2"/>
-        <v>14000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="10" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
-        <v>44469</v>
+        <v>44515</v>
       </c>
       <c r="D10" s="18">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
@@ -2454,27 +1933,29 @@
         <v>0</v>
       </c>
       <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2"/>
+        <v>3000</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="M10" s="19">
         <f t="shared" si="3"/>
-        <v>17800</v>
+        <v>6250</v>
       </c>
       <c r="N10" s="20">
         <f t="shared" si="2"/>
-        <v>14300</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="11" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
-        <v>44484</v>
+        <v>44530</v>
       </c>
       <c r="D11" s="18">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="1"/>
@@ -2499,22 +1980,22 @@
       <c r="L11" s="2"/>
       <c r="M11" s="19">
         <f t="shared" si="3"/>
-        <v>18100</v>
+        <v>6500</v>
       </c>
       <c r="N11" s="20">
         <f t="shared" si="2"/>
-        <v>14600</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="12" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
-        <v>44500</v>
+        <v>44545</v>
       </c>
       <c r="D12" s="18">
-        <v>3800</v>
+        <v>250</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="1"/>
@@ -2522,7 +2003,7 @@
       </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
@@ -2531,25 +2012,27 @@
         <v>0</v>
       </c>
       <c r="J12" s="8">
-        <v>3500</v>
-      </c>
-      <c r="K12" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="19">
         <f t="shared" si="3"/>
-        <v>18400</v>
+        <v>6750</v>
       </c>
       <c r="N12" s="20">
         <f t="shared" si="2"/>
-        <v>18400</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="13" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
-        <v>44515</v>
+        <v>44561</v>
       </c>
       <c r="D13" s="18">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
@@ -2560,7 +2043,7 @@
       </c>
       <c r="G13" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
@@ -2571,23 +2054,25 @@
       <c r="J13" s="8">
         <v>0</v>
       </c>
-      <c r="K13" s="8"/>
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
       <c r="L13" s="2"/>
       <c r="M13" s="19">
         <f t="shared" si="3"/>
-        <v>18700</v>
+        <v>7000</v>
       </c>
       <c r="N13" s="20">
         <f t="shared" si="2"/>
-        <v>18700</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="14" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
-        <v>44530</v>
+        <v>44576</v>
       </c>
       <c r="D14" s="18">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -2598,7 +2083,7 @@
       </c>
       <c r="G14" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H14" s="6">
         <v>0</v>
@@ -2609,32 +2094,36 @@
       <c r="J14" s="8">
         <v>0</v>
       </c>
-      <c r="K14" s="8"/>
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
       <c r="L14" s="2"/>
       <c r="M14" s="19">
         <f t="shared" si="3"/>
-        <v>19000</v>
+        <v>7250</v>
       </c>
       <c r="N14" s="20">
         <f t="shared" si="2"/>
-        <v>19000</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="15" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
-        <v>44545</v>
+        <v>44592</v>
       </c>
       <c r="D15" s="18">
-        <v>300</v>
-      </c>
-      <c r="E15" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F15" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H15" s="6">
         <v>0</v>
@@ -2645,32 +2134,36 @@
       <c r="J15" s="8">
         <v>0</v>
       </c>
-      <c r="K15" s="21"/>
+      <c r="K15" s="8">
+        <v>0</v>
+      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="19">
         <f t="shared" si="3"/>
-        <v>19300</v>
+        <v>7500</v>
       </c>
       <c r="N15" s="20">
         <f t="shared" si="2"/>
-        <v>19300</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="16" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
-        <v>44561</v>
+        <v>44607</v>
       </c>
       <c r="D16" s="18">
-        <v>300</v>
-      </c>
-      <c r="E16" s="2"/>
+        <v>1700</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F16" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H16" s="6">
         <v>0</v>
@@ -2681,32 +2174,36 @@
       <c r="J16" s="8">
         <v>0</v>
       </c>
-      <c r="K16" s="8"/>
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
       <c r="L16" s="2"/>
       <c r="M16" s="19">
         <f t="shared" si="3"/>
-        <v>19600</v>
+        <v>9200</v>
       </c>
       <c r="N16" s="20">
         <f t="shared" si="2"/>
-        <v>19600</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="17" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="1">
-        <v>44576</v>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D17" s="18">
-        <v>300</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F17" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H17" s="6">
         <v>0</v>
@@ -2717,25 +2214,29 @@
       <c r="J17" s="8">
         <v>0</v>
       </c>
-      <c r="K17" s="8"/>
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
       <c r="L17" s="2"/>
       <c r="M17" s="19">
         <f t="shared" si="3"/>
-        <v>19900</v>
+        <v>9450</v>
       </c>
       <c r="N17" s="20">
         <f t="shared" si="2"/>
-        <v>19900</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
-        <v>44592</v>
+        <v>44635</v>
       </c>
       <c r="D18" s="18">
-        <v>300</v>
-      </c>
-      <c r="E18" s="2"/>
+        <v>4300</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="F18" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2751,27 +2252,31 @@
         <v>0</v>
       </c>
       <c r="J18" s="8">
-        <v>0</v>
-      </c>
-      <c r="K18" s="8"/>
+        <v>3500</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
       <c r="L18" s="2"/>
       <c r="M18" s="19">
         <f t="shared" si="3"/>
-        <v>20200</v>
+        <v>10250</v>
       </c>
       <c r="N18" s="20">
         <f t="shared" si="2"/>
-        <v>20200</v>
+        <v>10250</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
-        <v>44607</v>
+        <v>44651</v>
       </c>
       <c r="D19" s="18">
-        <v>300</v>
-      </c>
-      <c r="E19" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F19" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2789,25 +2294,29 @@
       <c r="J19" s="8">
         <v>0</v>
       </c>
-      <c r="K19" s="8"/>
+      <c r="K19" s="8">
+        <v>0</v>
+      </c>
       <c r="L19" s="2"/>
       <c r="M19" s="19">
         <f t="shared" si="3"/>
-        <v>20500</v>
+        <v>10500</v>
       </c>
       <c r="N19" s="20">
         <f t="shared" si="2"/>
-        <v>20500</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
-        <v>82</v>
+      <c r="C20" s="1">
+        <v>44666</v>
       </c>
       <c r="D20" s="18">
-        <v>300</v>
-      </c>
-      <c r="E20" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F20" s="7">
         <f t="shared" ref="F20" si="4">F19-I20</f>
         <v>0</v>
@@ -2825,25 +2334,29 @@
       <c r="J20" s="8">
         <v>0</v>
       </c>
-      <c r="K20" s="8"/>
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
       <c r="L20" s="2"/>
       <c r="M20" s="19">
         <f t="shared" ref="M20" si="6">D20+H20-I20-J20-K20+M19</f>
-        <v>20800</v>
+        <v>10750</v>
       </c>
       <c r="N20" s="20">
         <f t="shared" ref="N20" si="7">M20-F20-G20</f>
-        <v>20800</v>
+        <v>10750</v>
       </c>
     </row>
     <row r="21" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
-        <v>44635</v>
+        <v>44681</v>
       </c>
       <c r="D21" s="18">
-        <v>3900</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F21" s="7">
         <f t="shared" ref="F21:F25" si="8">F20-I21</f>
         <v>0</v>
@@ -2861,25 +2374,29 @@
       <c r="J21" s="8">
         <v>0</v>
       </c>
-      <c r="K21" s="8"/>
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
       <c r="L21" s="2"/>
       <c r="M21" s="19">
         <f t="shared" ref="M21:M25" si="10">D21+H21-I21-J21-K21+M20</f>
-        <v>24700</v>
+        <v>11000</v>
       </c>
       <c r="N21" s="20">
         <f t="shared" ref="N21:N25" si="11">M21-F21-G21</f>
-        <v>24700</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="22" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
-        <v>44651</v>
+        <v>44696</v>
       </c>
       <c r="D22" s="18">
-        <v>300</v>
-      </c>
-      <c r="E22" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F22" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -2897,25 +2414,29 @@
       <c r="J22" s="8">
         <v>0</v>
       </c>
-      <c r="K22" s="8"/>
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
       <c r="L22" s="2"/>
       <c r="M22" s="19">
         <f t="shared" si="10"/>
-        <v>25000</v>
+        <v>11250</v>
       </c>
       <c r="N22" s="20">
         <f t="shared" si="11"/>
-        <v>25000</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="23" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
-        <v>44666</v>
+        <v>44712</v>
       </c>
       <c r="D23" s="18">
-        <v>300</v>
-      </c>
-      <c r="E23" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F23" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -2933,25 +2454,29 @@
       <c r="J23" s="8">
         <v>0</v>
       </c>
-      <c r="K23" s="8"/>
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
       <c r="L23" s="2"/>
       <c r="M23" s="19">
         <f t="shared" si="10"/>
-        <v>25300</v>
+        <v>11500</v>
       </c>
       <c r="N23" s="20">
         <f t="shared" si="11"/>
-        <v>25300</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
-        <v>44681</v>
+        <v>44727</v>
       </c>
       <c r="D24" s="18">
-        <v>300</v>
-      </c>
-      <c r="E24" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F24" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -2969,15 +2494,17 @@
       <c r="J24" s="8">
         <v>0</v>
       </c>
-      <c r="K24" s="8"/>
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
       <c r="L24" s="2"/>
       <c r="M24" s="19">
         <f t="shared" si="10"/>
-        <v>25600</v>
+        <v>11750</v>
       </c>
       <c r="N24" s="20">
         <f t="shared" si="11"/>
-        <v>25600</v>
+        <v>11750</v>
       </c>
     </row>
     <row r="25" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -3001,23 +2528,25 @@
       <c r="J25" s="8">
         <v>0</v>
       </c>
-      <c r="K25" s="8"/>
+      <c r="K25" s="8">
+        <v>0</v>
+      </c>
       <c r="L25" s="2"/>
       <c r="M25" s="19">
         <f t="shared" si="10"/>
-        <v>25600</v>
+        <v>11750</v>
       </c>
       <c r="N25" s="20">
         <f t="shared" si="11"/>
-        <v>25600</v>
+        <v>11750</v>
       </c>
     </row>
     <row r="27" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
     </row>
     <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D28" s="9" t="s">
@@ -3050,10 +2579,10 @@
       <c r="E32" s="11"/>
       <c r="F32" s="12"/>
       <c r="K32" s="8">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
@@ -3094,12 +2623,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A022CD6-754C-4E49-9CCD-B96F73C0F03C}">
-  <dimension ref="B3:S15"/>
+  <dimension ref="B3:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3116,163 +2645,147 @@
     <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="43" t="s">
+    <row r="3" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="E3" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="E3" s="43" t="s">
+      <c r="F3" s="37"/>
+      <c r="H3" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="H3" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="43"/>
-      <c r="K3" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="43"/>
-      <c r="N3" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="43"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="I3" s="37"/>
+      <c r="K3" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="N3" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="37"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="22">
+        <v>11000</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="22">
-        <v>5000</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" s="22">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="22">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
       <c r="I5" s="23">
-        <v>3850</v>
+        <v>4000</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="L5" s="22">
         <v>1800</v>
       </c>
       <c r="N5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O5" s="23">
         <f>I5</f>
-        <v>3850</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C6" s="22"/>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="L6" s="22">
         <v>200</v>
       </c>
       <c r="N6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O6" s="24">
         <f>L12</f>
-        <v>3390</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="L7" s="22">
         <v>90</v>
       </c>
       <c r="N7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O7" s="23">
         <f>SUM(O5-O6)</f>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L8" s="22">
         <v>90</v>
       </c>
       <c r="N8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O8" s="23">
         <f>SUM(O7/2)</f>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K9" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="L9" s="22">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="N9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O9" s="22">
         <f>SUM(O6/2)</f>
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K10" t="s">
         <v>2</v>
       </c>
       <c r="L10" s="22">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L11" s="22">
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="L12" s="22">
         <f>SUM(L5:L11)</f>
-        <v>3390</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="Q14" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-    </row>
-    <row r="15" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="Q15" s="44">
-        <v>120000</v>
-      </c>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
+        <v>3310</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="5">
     <mergeCell ref="N3:O3"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="Q15:S15"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="H3:I3"/>
@@ -3283,228 +2796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84F4EBF-98CA-422A-BA9E-89CFBE31CB4A}">
-  <dimension ref="C3:F16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="2">
-        <v>4</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="18">
-        <v>100</v>
-      </c>
-      <c r="F4" s="19">
-        <f>C4*E4</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="18">
-        <v>115</v>
-      </c>
-      <c r="F5" s="19">
-        <f t="shared" ref="F5:F15" si="0">C5*E5</f>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="2">
-        <v>4</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="18">
-        <v>75</v>
-      </c>
-      <c r="F6" s="19">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="18">
-        <v>42</v>
-      </c>
-      <c r="F7" s="19">
-        <f t="shared" si="0"/>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="18">
-        <v>450</v>
-      </c>
-      <c r="F8" s="19">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="2">
-        <v>4</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="18">
-        <v>32</v>
-      </c>
-      <c r="F9" s="19">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="2">
-        <v>4</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="18">
-        <v>18</v>
-      </c>
-      <c r="F10" s="19">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="2">
-        <v>4</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="18">
-        <v>7</v>
-      </c>
-      <c r="F11" s="19">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="2">
-        <v>4</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="18">
-        <v>3</v>
-      </c>
-      <c r="F12" s="19">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="2">
-        <v>4</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="F13" s="19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="2">
-        <v>4</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="18">
-        <v>2</v>
-      </c>
-      <c r="F14" s="19">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="2">
-        <v>4</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="18">
-        <v>20</v>
-      </c>
-      <c r="F15" s="19">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F16" s="29">
-        <f>SUM(F4:F15)</f>
-        <v>2107</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950C07E0-6136-4D0C-A842-F150475BA4E5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3512,7 +2804,7 @@
   <dimension ref="C1:N36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C22"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3535,34 +2827,34 @@
     <row r="1" spans="3:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="38"/>
+      <c r="C3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
     </row>
     <row r="4" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="41"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="35"/>
     </row>
     <row r="5" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
@@ -3578,10 +2870,10 @@
         <v>3</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>12</v>
@@ -3604,7 +2896,7 @@
     </row>
     <row r="6" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
-        <v>44407</v>
+        <v>44449</v>
       </c>
       <c r="D6" s="18">
         <v>0</v>
@@ -3637,7 +2929,7 @@
     </row>
     <row r="7" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
-        <v>44421</v>
+        <v>44463</v>
       </c>
       <c r="D7" s="18">
         <v>0</v>
@@ -3673,7 +2965,7 @@
     </row>
     <row r="8" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
-        <v>44435</v>
+        <v>44477</v>
       </c>
       <c r="D8" s="18">
         <v>0</v>
@@ -3711,7 +3003,7 @@
     </row>
     <row r="9" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
-        <v>44449</v>
+        <v>44491</v>
       </c>
       <c r="D9" s="18">
         <v>0</v>
@@ -3749,7 +3041,7 @@
     </row>
     <row r="10" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
-        <v>44463</v>
+        <v>44505</v>
       </c>
       <c r="D10" s="18">
         <v>0</v>
@@ -3787,7 +3079,7 @@
     </row>
     <row r="11" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
-        <v>44477</v>
+        <v>44519</v>
       </c>
       <c r="D11" s="18">
         <v>0</v>
@@ -3824,9 +3116,7 @@
       </c>
     </row>
     <row r="12" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="1">
-        <v>44491</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="18">
         <v>0</v>
       </c>
@@ -3860,9 +3150,7 @@
       </c>
     </row>
     <row r="13" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="1">
-        <v>44505</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="18">
         <v>0</v>
       </c>
@@ -3896,9 +3184,7 @@
       </c>
     </row>
     <row r="14" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="1">
-        <v>44519</v>
-      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="18">
         <v>0</v>
       </c>
@@ -4304,11 +3590,11 @@
       </c>
     </row>
     <row r="27" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
     </row>
     <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D28" s="9" t="s">
@@ -4379,7 +3665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF86D54-5D3D-411D-8D4D-CF2AE3CCF34E}">
   <dimension ref="B3:O12"/>
   <sheetViews>
@@ -4403,54 +3689,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="E3" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="E3" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="43"/>
-      <c r="H3" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="43"/>
-      <c r="K3" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="43"/>
-      <c r="N3" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="43"/>
+      <c r="F3" s="37"/>
+      <c r="H3" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="K3" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="N3" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="37"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="22">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
       <c r="F5" s="22">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I5" s="24">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L5" s="22">
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O5" s="24">
         <f>I5</f>
@@ -4460,13 +3746,13 @@
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C6" s="22"/>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L6" s="22">
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O6" s="24">
         <f>L12</f>
@@ -4475,13 +3761,13 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L7" s="22">
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O7" s="23">
         <f>SUM(O5-O6)</f>
@@ -4490,13 +3776,13 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L8" s="22">
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O8" s="23">
         <f>SUM(O6/2)</f>
@@ -4505,13 +3791,13 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L9" s="22">
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O9" s="22">
         <f>SUM(O5/2)</f>
@@ -4520,7 +3806,7 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L10" s="22">
         <v>0</v>
@@ -4528,7 +3814,7 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L11" s="22">
         <v>0</v>
